--- a/excel/CUHP-my_cuhp comparison_adjusted.xlsx
+++ b/excel/CUHP-my_cuhp comparison_adjusted.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\python\hlc_cuhp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
-    <sheet name="Short output" sheetId="1" r:id="rId1"/>
-    <sheet name="medium" sheetId="2" r:id="rId2"/>
-    <sheet name="long" sheetId="3" r:id="rId3"/>
-    <sheet name="discrepancy check" sheetId="4" r:id="rId4"/>
-    <sheet name="correlation" sheetId="5" r:id="rId5"/>
+    <sheet name="20080611" sheetId="6" r:id="rId1"/>
+    <sheet name="Short output" sheetId="1" r:id="rId2"/>
+    <sheet name="medium" sheetId="2" r:id="rId3"/>
+    <sheet name="long" sheetId="3" r:id="rId4"/>
+    <sheet name="discrepancy check" sheetId="4" r:id="rId5"/>
+    <sheet name="correlation" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="94">
   <si>
     <t>Summary of Unit Hydrograph Parameters Used By Program and Calculated Results (Version 2.0.0)</t>
   </si>
@@ -304,6 +305,15 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>6/11/2008-9:09:33</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>Unadjusted</t>
   </si>
 </sst>
 </file>
@@ -623,7 +633,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -739,6 +749,7 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3265,10 +3276,5734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:AO62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="20.42578125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="9.140625" style="5"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="9.140625" style="4"/>
+    <col min="15" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="10.7109375" style="5" customWidth="1"/>
+    <col min="18" max="20" width="9.140625" style="2"/>
+    <col min="21" max="21" width="11.42578125" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:24" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="S4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="22" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24">
+        <v>0.14607235834778248</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.17235891936537218</v>
+      </c>
+      <c r="E6" s="25">
+        <v>45.61589964460844</v>
+      </c>
+      <c r="F6" s="26">
+        <v>6.3382519055032134</v>
+      </c>
+      <c r="G6" s="25">
+        <v>23.72026781519639</v>
+      </c>
+      <c r="H6" s="26">
+        <v>4.4790313465556046</v>
+      </c>
+      <c r="I6" s="25">
+        <v>10.56375317583869</v>
+      </c>
+      <c r="J6" s="23">
+        <v>82.30617020054234</v>
+      </c>
+      <c r="K6" s="23">
+        <v>290746.15680000006</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0.66018157364305075</v>
+      </c>
+      <c r="M6" s="23">
+        <v>191945.25532689324</v>
+      </c>
+      <c r="N6" s="25">
+        <v>11</v>
+      </c>
+      <c r="O6" s="23">
+        <v>54.330034086338394</v>
+      </c>
+      <c r="P6" s="23">
+        <v>191938.62815889559</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>0.67831687236736782</v>
+      </c>
+      <c r="R6" s="5">
+        <f>P6/43560</f>
+        <v>4.4063045950159685</v>
+      </c>
+      <c r="S6" s="5">
+        <f>VLOOKUP(A6,$A$34:$T$62,20,FALSE)</f>
+        <v>0.34159789779700001</v>
+      </c>
+      <c r="T6" s="5">
+        <f>S6-R6</f>
+        <v>-4.064706697218968</v>
+      </c>
+      <c r="U6" s="28">
+        <f>T6/R6</f>
+        <v>-0.92247519652105159</v>
+      </c>
+      <c r="V6" s="5">
+        <f>VLOOKUP(A6,$V$35:$AO$63,20,FALSE)</f>
+        <v>2.9523060595600001</v>
+      </c>
+      <c r="W6" s="2">
+        <f>V6-R6</f>
+        <v>-1.4539985354559684</v>
+      </c>
+      <c r="X6" s="28">
+        <f>W6/R6</f>
+        <v>-0.32998139463635945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24">
+        <v>0.15754784627620846</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.20581208015777208</v>
+      </c>
+      <c r="E7" s="25">
+        <v>36.861509179726461</v>
+      </c>
+      <c r="F7" s="26">
+        <v>6.1264657014023527</v>
+      </c>
+      <c r="G7" s="25">
+        <v>19.167984773457761</v>
+      </c>
+      <c r="H7" s="26">
+        <v>4.3293690956576629</v>
+      </c>
+      <c r="I7" s="25">
+        <v>10.210776169003921</v>
+      </c>
+      <c r="J7" s="23">
+        <v>129.08180120354228</v>
+      </c>
+      <c r="K7" s="23">
+        <v>368471.13599999994</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0.65127367077578902</v>
+      </c>
+      <c r="M7" s="23">
+        <v>239975.54931764494</v>
+      </c>
+      <c r="N7" s="25">
+        <v>10</v>
+      </c>
+      <c r="O7" s="23">
+        <v>84.017763247829933</v>
+      </c>
+      <c r="P7" s="23">
+        <v>239959.19867728592</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>0.82770250039238535</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" ref="R7:R32" si="0">P7/43560</f>
+        <v>5.5087052037944426</v>
+      </c>
+      <c r="S7" s="5">
+        <f>VLOOKUP(A7,$A$34:$T$62,20,FALSE)</f>
+        <v>0.13787976633900001</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" ref="T7" si="1">S7-R7</f>
+        <v>-5.3708254374554425</v>
+      </c>
+      <c r="U7" s="47">
+        <f t="shared" ref="U7" si="2">T7/R7</f>
+        <v>-0.97497056726796205</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" ref="V7:V33" si="3">VLOOKUP(A7,$V$35:$AO$63,20,FALSE)</f>
+        <v>3.62866432581</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" ref="W7:W33" si="4">V7-R7</f>
+        <v>-1.8800408779844426</v>
+      </c>
+      <c r="X7" s="28">
+        <f t="shared" ref="X7:X33" si="5">W7/R7</f>
+        <v>-0.34128543975986492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24">
+        <v>0.14862754721138288</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.22638776191153873</v>
+      </c>
+      <c r="E8" s="25">
+        <v>38.828414896513493</v>
+      </c>
+      <c r="F8" s="26">
+        <v>7.0509334632916545</v>
+      </c>
+      <c r="G8" s="25">
+        <v>20.190775746187018</v>
+      </c>
+      <c r="H8" s="26">
+        <v>4.9826596473927687</v>
+      </c>
+      <c r="I8" s="25">
+        <v>11.751555772152756</v>
+      </c>
+      <c r="J8" s="23">
+        <v>193.07870331511191</v>
+      </c>
+      <c r="K8" s="23">
+        <v>580563.03359999997</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0.66600457943228875</v>
+      </c>
+      <c r="M8" s="23">
+        <v>386657.63902670168</v>
+      </c>
+      <c r="N8" s="25">
+        <v>12</v>
+      </c>
+      <c r="O8" s="23">
+        <v>128.58272116582557</v>
+      </c>
+      <c r="P8" s="23">
+        <v>386637.8905535941</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>0.80397002705744924</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="0"/>
+        <v>8.8759846316252098</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" ref="S8:S32" si="6">VLOOKUP(A8,$A$34:$T$62,20,FALSE)</f>
+        <v>0.60914342019300005</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" ref="T8:T32" si="7">S8-R8</f>
+        <v>-8.2668412114322098</v>
+      </c>
+      <c r="U8" s="47">
+        <f t="shared" ref="U8:U32" si="8">T8/R8</f>
+        <v>-0.93137173559059394</v>
+      </c>
+      <c r="V8" s="5">
+        <f t="shared" si="3"/>
+        <v>6.3303392999000003</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.5456453317252095</v>
+      </c>
+      <c r="X8" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.28680145779602334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24">
+        <v>0.1180047922357141</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.19791077531452039</v>
+      </c>
+      <c r="E9" s="25">
+        <v>45.156749380524602</v>
+      </c>
+      <c r="F9" s="26">
+        <v>7.1636215914878294</v>
+      </c>
+      <c r="G9" s="25">
+        <v>23.481509677872793</v>
+      </c>
+      <c r="H9" s="26">
+        <v>5.0622925913180667</v>
+      </c>
+      <c r="I9" s="25">
+        <v>11.939369319146383</v>
+      </c>
+      <c r="J9" s="23">
+        <v>193.00370641290723</v>
+      </c>
+      <c r="K9" s="23">
+        <v>674922.12480000011</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0.70155950116962174</v>
+      </c>
+      <c r="M9" s="23">
+        <v>473498.02920302929</v>
+      </c>
+      <c r="N9" s="25">
+        <v>12</v>
+      </c>
+      <c r="O9" s="23">
+        <v>135.40321720894815</v>
+      </c>
+      <c r="P9" s="23">
+        <v>473488.48798462457</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>0.72825243151442431</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="0"/>
+        <v>10.869799999647029</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="6"/>
+        <v>2.8409637814300002</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="7"/>
+        <v>-8.0288362182170285</v>
+      </c>
+      <c r="U9" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.7386369775412378</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" si="3"/>
+        <v>8.5820005447199996</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.2877994549270291</v>
+      </c>
+      <c r="X9" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.21047300364324276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24">
+        <v>0.1290704403141216</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.18857078137320912</v>
+      </c>
+      <c r="E10" s="25">
+        <v>43.86983728413032</v>
+      </c>
+      <c r="F10" s="26">
+        <v>6.6533333724549095</v>
+      </c>
+      <c r="G10" s="25">
+        <v>22.812315387747766</v>
+      </c>
+      <c r="H10" s="26">
+        <v>4.7016889165348035</v>
+      </c>
+      <c r="I10" s="25">
+        <v>11.088888954091516</v>
+      </c>
+      <c r="J10" s="23">
+        <v>140.20863492523296</v>
+      </c>
+      <c r="K10" s="23">
+        <v>476328.01920000004</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0.67067523877391477</v>
+      </c>
+      <c r="M10" s="23">
+        <v>319461.40801166592</v>
+      </c>
+      <c r="N10" s="25">
+        <v>11</v>
+      </c>
+      <c r="O10" s="23">
+        <v>94.026057084148661</v>
+      </c>
+      <c r="P10" s="23">
+        <v>319461.22459360003</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>0.71655366356298456</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="0"/>
+        <v>7.3338205829568421</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1103553394500001</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="7"/>
+        <v>-6.2234652435068423</v>
+      </c>
+      <c r="U10" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.84859796788179298</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" si="3"/>
+        <v>4.9441441859799999</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.3896763969768422</v>
+      </c>
+      <c r="X10" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.32584331317434206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24">
+        <v>9.7227326002539541E-2</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.32857306310005091</v>
+      </c>
+      <c r="E11" s="25">
+        <v>87.73410909030477</v>
+      </c>
+      <c r="F11" s="26">
+        <v>22.439185890935391</v>
+      </c>
+      <c r="G11" s="25">
+        <v>45.621736726958481</v>
+      </c>
+      <c r="H11" s="26">
+        <v>15.857024696261014</v>
+      </c>
+      <c r="I11" s="25">
+        <v>37.398643151558993</v>
+      </c>
+      <c r="J11" s="23">
+        <v>333.96304246779943</v>
+      </c>
+      <c r="K11" s="23">
+        <v>2268988.1279999996</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0.74274316518752814</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1685275.4239636438</v>
+      </c>
+      <c r="N11" s="25">
+        <v>38</v>
+      </c>
+      <c r="O11" s="23">
+        <v>248.02345453207801</v>
+      </c>
+      <c r="P11" s="23">
+        <v>1685267.3191889157</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>0.3967958795558067</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="0"/>
+        <v>38.688414122794207</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" si="6"/>
+        <v>21.906265829900001</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="7"/>
+        <v>-16.782148292894206</v>
+      </c>
+      <c r="U11" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.43377710545665921</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" si="3"/>
+        <v>32.267594168599999</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="4"/>
+        <v>-6.4208199541942079</v>
+      </c>
+      <c r="X11" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.1659623455697872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24">
+        <v>0.10334717494367415</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.1471657676085924</v>
+      </c>
+      <c r="E12" s="25">
+        <v>27.985982156766759</v>
+      </c>
+      <c r="F12" s="26">
+        <v>3.4630683236205697</v>
+      </c>
+      <c r="G12" s="25">
+        <v>14.552710721518714</v>
+      </c>
+      <c r="H12" s="26">
+        <v>2.4472349486918694</v>
+      </c>
+      <c r="I12" s="25">
+        <v>5.771780539367616</v>
+      </c>
+      <c r="J12" s="23">
+        <v>135.47711060350471</v>
+      </c>
+      <c r="K12" s="23">
+        <v>293610.66239999997</v>
+      </c>
+      <c r="L12" s="26">
+        <v>0.7190332425800795</v>
+      </c>
+      <c r="M12" s="23">
+        <v>211115.82664155701</v>
+      </c>
+      <c r="N12" s="25">
+        <v>6</v>
+      </c>
+      <c r="O12" s="23">
+        <v>97.403890545595246</v>
+      </c>
+      <c r="P12" s="23">
+        <v>211107.71871226723</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>1.2042346139283489</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8463663616222963</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="6"/>
+        <v>2.0919436308499999</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.7544227307722964</v>
+      </c>
+      <c r="U12" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.56834802102131365</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="3"/>
+        <v>3.7335455258999999</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.1128208357222964</v>
+      </c>
+      <c r="X12" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.2296196268888317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24">
+        <v>0.10664425516873902</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.22086883479393743</v>
+      </c>
+      <c r="E13" s="25">
+        <v>63.321746682238334</v>
+      </c>
+      <c r="F13" s="26">
+        <v>11.041094712439952</v>
+      </c>
+      <c r="G13" s="25">
+        <v>32.927308274763931</v>
+      </c>
+      <c r="H13" s="26">
+        <v>7.8023735967909005</v>
+      </c>
+      <c r="I13" s="25">
+        <v>18.401824520733253</v>
+      </c>
+      <c r="J13" s="23">
+        <v>217.08134598655548</v>
+      </c>
+      <c r="K13" s="23">
+        <v>1064487.9168</v>
+      </c>
+      <c r="L13" s="26">
+        <v>0.71096938316180691</v>
+      </c>
+      <c r="M13" s="23">
+        <v>756818.31759049278</v>
+      </c>
+      <c r="N13" s="25">
+        <v>19</v>
+      </c>
+      <c r="O13" s="23">
+        <v>154.31632004970905</v>
+      </c>
+      <c r="P13" s="23">
+        <v>756817.67748132301</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>0.52623259779630771</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="0"/>
+        <v>17.374143192867837</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="6"/>
+        <v>6.6195131312399997</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="7"/>
+        <v>-10.754630061627838</v>
+      </c>
+      <c r="U13" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.61900203896343275</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="3"/>
+        <v>13.0845429164</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="4"/>
+        <v>-4.2896002764678371</v>
+      </c>
+      <c r="X13" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.24689564422542212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24">
+        <v>0.14996690606595078</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.210187061622789</v>
+      </c>
+      <c r="E14" s="25">
+        <v>50.730170989630963</v>
+      </c>
+      <c r="F14" s="26">
+        <v>8.4890500423159185</v>
+      </c>
+      <c r="G14" s="25">
+        <v>26.379688914608103</v>
+      </c>
+      <c r="H14" s="26">
+        <v>5.9989286965699176</v>
+      </c>
+      <c r="I14" s="25">
+        <v>14.1484167371932</v>
+      </c>
+      <c r="J14" s="23">
+        <v>112.23912494132557</v>
+      </c>
+      <c r="K14" s="23">
+        <v>440936.39039999997</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0.65149076585631238</v>
+      </c>
+      <c r="M14" s="23">
+        <v>287265.98667561391</v>
+      </c>
+      <c r="N14" s="25">
+        <v>14</v>
+      </c>
+      <c r="O14" s="23">
+        <v>73.111563961286649</v>
+      </c>
+      <c r="P14" s="23">
+        <v>287266.06935988844</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>0.60188948555304034</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="0"/>
+        <v>6.5947215188220483</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="6"/>
+        <v>0.38092422671999998</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="7"/>
+        <v>-6.2137972921020479</v>
+      </c>
+      <c r="U14" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.94223801177459865</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="3"/>
+        <v>4.1681119065700001</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.4266096122520482</v>
+      </c>
+      <c r="X14" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.36796240831796184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24">
+        <v>0.14195465670818666</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.19689050103802463</v>
+      </c>
+      <c r="E15" s="25">
+        <v>31.376530548212969</v>
+      </c>
+      <c r="F15" s="26">
+        <v>5.0445049501229082</v>
+      </c>
+      <c r="G15" s="25">
+        <v>16.315795885070742</v>
+      </c>
+      <c r="H15" s="26">
+        <v>3.5647834980868556</v>
+      </c>
+      <c r="I15" s="25">
+        <v>8.407508250204847</v>
+      </c>
+      <c r="J15" s="23">
+        <v>170.26452277096226</v>
+      </c>
+      <c r="K15" s="23">
+        <v>413708.48639999999</v>
+      </c>
+      <c r="L15" s="26">
+        <v>0.6591809805547042</v>
+      </c>
+      <c r="M15" s="23">
+        <v>272708.76572895452</v>
+      </c>
+      <c r="N15" s="25">
+        <v>9</v>
+      </c>
+      <c r="O15" s="23">
+        <v>112.1745530019994</v>
+      </c>
+      <c r="P15" s="23">
+        <v>272692.17231273232</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>0.9842525371924733</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="0"/>
+        <v>6.2601508795393093</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="6"/>
+        <v>0.58840864386400005</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="7"/>
+        <v>-5.6717422356753096</v>
+      </c>
+      <c r="U15" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.90600727439538942</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="3"/>
+        <v>4.0644362516700001</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.1957146278693092</v>
+      </c>
+      <c r="X15" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.35074468173695106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24">
+        <v>0.13602945264846253</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.11403191008752589</v>
+      </c>
+      <c r="E16" s="25">
+        <v>40.860140440437213</v>
+      </c>
+      <c r="F16" s="26">
+        <v>3.8783883731463291</v>
+      </c>
+      <c r="G16" s="25">
+        <v>21.247273029027351</v>
+      </c>
+      <c r="H16" s="26">
+        <v>2.7407277836900725</v>
+      </c>
+      <c r="I16" s="25">
+        <v>6.4639806219105491</v>
+      </c>
+      <c r="J16" s="23">
+        <v>42.20102969331716</v>
+      </c>
+      <c r="K16" s="23">
+        <v>133532.88959999999</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0.66383950716710216</v>
+      </c>
+      <c r="M16" s="23">
+        <v>88644.407622663071</v>
+      </c>
+      <c r="N16" s="25">
+        <v>7</v>
+      </c>
+      <c r="O16" s="23">
+        <v>28.008835367261057</v>
+      </c>
+      <c r="P16" s="23">
+        <v>88640.998101180972</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>0.76140097535309847</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="0"/>
+        <v>2.034917311781014</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="6"/>
+        <v>0.24829145869700001</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.786625853084014</v>
+      </c>
+      <c r="U16" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.87798449732599271</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="3"/>
+        <v>1.30165124761</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.73326606417101403</v>
+      </c>
+      <c r="X16" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.36034194604656439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24">
+        <v>0.15715905930030824</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.15761722810650261</v>
+      </c>
+      <c r="E17" s="25">
+        <v>48.138354031784289</v>
+      </c>
+      <c r="F17" s="26">
+        <v>6.1271492567802808</v>
+      </c>
+      <c r="G17" s="25">
+        <v>25.03194409652783</v>
+      </c>
+      <c r="H17" s="26">
+        <v>4.3298521414580655</v>
+      </c>
+      <c r="I17" s="25">
+        <v>10.211915427967135</v>
+      </c>
+      <c r="J17" s="23">
+        <v>54.924811061347341</v>
+      </c>
+      <c r="K17" s="23">
+        <v>204750.58560000002</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0.63817316438334637</v>
+      </c>
+      <c r="M17" s="23">
+        <v>130666.32912169523</v>
+      </c>
+      <c r="N17" s="25">
+        <v>11</v>
+      </c>
+      <c r="O17" s="23">
+        <v>35.038841630824678</v>
+      </c>
+      <c r="P17" s="23">
+        <v>130662.51168975163</v>
+      </c>
+      <c r="Q17" s="26">
+        <v>0.6211996646904514</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9995985236398446</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" si="6"/>
+        <v>7.5556674474700006E-2</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.9240418491651448</v>
+      </c>
+      <c r="U17" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.97481107092191255</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5718510908400001</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.4277474327998445</v>
+      </c>
+      <c r="X17" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.47597950910688974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24">
+        <v>9.0438319829587513E-2</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.35545856463918196</v>
+      </c>
+      <c r="E18" s="25">
+        <v>44.558043862127427</v>
+      </c>
+      <c r="F18" s="26">
+        <v>12.463997425429653</v>
+      </c>
+      <c r="G18" s="25">
+        <v>23.170182808306262</v>
+      </c>
+      <c r="H18" s="26">
+        <v>8.80789151397029</v>
+      </c>
+      <c r="I18" s="25">
+        <v>20.773329042382755</v>
+      </c>
+      <c r="J18" s="23">
+        <v>456.22604221363622</v>
+      </c>
+      <c r="K18" s="23">
+        <v>1574242.1376000002</v>
+      </c>
+      <c r="L18" s="26">
+        <v>0.77147837040409939</v>
+      </c>
+      <c r="M18" s="23">
+        <v>1214493.7589371142</v>
+      </c>
+      <c r="N18" s="25">
+        <v>21</v>
+      </c>
+      <c r="O18" s="23">
+        <v>351.94660622838029</v>
+      </c>
+      <c r="P18" s="23">
+        <v>1214459.5211013267</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>0.81154363111936845</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="0"/>
+        <v>27.880154295255434</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="6"/>
+        <v>19.2324368662</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="7"/>
+        <v>-8.6477174290554331</v>
+      </c>
+      <c r="U18" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.31017466178539327</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="3"/>
+        <v>24.105924441599999</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="4"/>
+        <v>-3.7742298536554344</v>
+      </c>
+      <c r="X18" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.13537334885903848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24">
+        <v>0.10780415159946584</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.15499949400276331</v>
+      </c>
+      <c r="E19" s="25">
+        <v>36.246130710500644</v>
+      </c>
+      <c r="F19" s="26">
+        <v>4.614725314318556</v>
+      </c>
+      <c r="G19" s="25">
+        <v>18.847987969460338</v>
+      </c>
+      <c r="H19" s="26">
+        <v>3.2610725554517801</v>
+      </c>
+      <c r="I19" s="25">
+        <v>7.6912088571975934</v>
+      </c>
+      <c r="J19" s="23">
+        <v>124.76945570054573</v>
+      </c>
+      <c r="K19" s="23">
+        <v>350215.43040000007</v>
+      </c>
+      <c r="L19" s="26">
+        <v>0.70819203985115087</v>
+      </c>
+      <c r="M19" s="23">
+        <v>248019.7800423248</v>
+      </c>
+      <c r="N19" s="25">
+        <v>8</v>
+      </c>
+      <c r="O19" s="23">
+        <v>88.352065552403033</v>
+      </c>
+      <c r="P19" s="23">
+        <v>248017.1706917728</v>
+      </c>
+      <c r="Q19" s="26">
+        <v>0.91577346431855844</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6936907872307803</v>
+      </c>
+      <c r="S19" s="5">
+        <f t="shared" si="6"/>
+        <v>2.0736671543799998</v>
+      </c>
+      <c r="T19" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.6200236328507804</v>
+      </c>
+      <c r="U19" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.6357956145018262</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" si="3"/>
+        <v>4.2237062893399999</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.4699844978907803</v>
+      </c>
+      <c r="X19" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.25817778885841663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24">
+        <v>0.10601039676047348</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.17235909572495489</v>
+      </c>
+      <c r="E20" s="25">
+        <v>21.578765570963927</v>
+      </c>
+      <c r="F20" s="26">
+        <v>3.1564197278761981</v>
+      </c>
+      <c r="G20" s="25">
+        <v>11.220958096901244</v>
+      </c>
+      <c r="H20" s="26">
+        <v>2.2305366076991802</v>
+      </c>
+      <c r="I20" s="25">
+        <v>5.2606995464603301</v>
+      </c>
+      <c r="J20" s="23">
+        <v>278.88805688207731</v>
+      </c>
+      <c r="K20" s="23">
+        <v>466038.56640000001</v>
+      </c>
+      <c r="L20" s="26">
+        <v>0.70903489617886173</v>
+      </c>
+      <c r="M20" s="23">
+        <v>330437.60654276953</v>
+      </c>
+      <c r="N20" s="25">
+        <v>6</v>
+      </c>
+      <c r="O20" s="23">
+        <v>197.40707754382157</v>
+      </c>
+      <c r="P20" s="23">
+        <v>330402.24774987734</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>1.5376145734450366</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="0"/>
+        <v>7.5849919134498931</v>
+      </c>
+      <c r="S20" s="5">
+        <f t="shared" si="6"/>
+        <v>2.7899410377799998</v>
+      </c>
+      <c r="T20" s="5">
+        <f t="shared" si="7"/>
+        <v>-4.7950508756698937</v>
+      </c>
+      <c r="U20" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.63217613550347918</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" si="3"/>
+        <v>5.1892125907400004</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.3957793227098927</v>
+      </c>
+      <c r="X20" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.3158578611615443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24">
+        <v>0.12376892355998603</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.17931831844486926</v>
+      </c>
+      <c r="E21" s="25">
+        <v>55.568766787687089</v>
+      </c>
+      <c r="F21" s="26">
+        <v>7.9527343245489774</v>
+      </c>
+      <c r="G21" s="25">
+        <v>28.895758729597286</v>
+      </c>
+      <c r="H21" s="26">
+        <v>5.6199322560146117</v>
+      </c>
+      <c r="I21" s="25">
+        <v>13.25455720758163</v>
+      </c>
+      <c r="J21" s="23">
+        <v>100.43501633433131</v>
+      </c>
+      <c r="K21" s="23">
+        <v>432196.51199999999</v>
+      </c>
+      <c r="L21" s="26">
+        <v>0.67154214109970467</v>
+      </c>
+      <c r="M21" s="23">
+        <v>290238.17104430421</v>
+      </c>
+      <c r="N21" s="25">
+        <v>14</v>
+      </c>
+      <c r="O21" s="23">
+        <v>67.429051058432549</v>
+      </c>
+      <c r="P21" s="23">
+        <v>290237.44269214693</v>
+      </c>
+      <c r="Q21" s="26">
+        <v>0.56633371289704015</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6629348643743551</v>
+      </c>
+      <c r="S21" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1307037283800001</v>
+      </c>
+      <c r="T21" s="5">
+        <f t="shared" si="7"/>
+        <v>-5.5322311359943548</v>
+      </c>
+      <c r="U21" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.83029944740632355</v>
+      </c>
+      <c r="V21" s="5">
+        <f t="shared" si="3"/>
+        <v>3.8946905686300002</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.7682442957443549</v>
+      </c>
+      <c r="X21" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.41546921170514717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24">
+        <v>0.11457383936671366</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.16612961024448872</v>
+      </c>
+      <c r="E22" s="25">
+        <v>22.957597882214184</v>
+      </c>
+      <c r="F22" s="26">
+        <v>3.2291034534312515</v>
+      </c>
+      <c r="G22" s="25">
+        <v>11.937950898751376</v>
+      </c>
+      <c r="H22" s="26">
+        <v>2.2818997737580848</v>
+      </c>
+      <c r="I22" s="25">
+        <v>5.381839089052086</v>
+      </c>
+      <c r="J22" s="23">
+        <v>222.64785829182821</v>
+      </c>
+      <c r="K22" s="23">
+        <v>395831.4623999999</v>
+      </c>
+      <c r="L22" s="26">
+        <v>0.68975786463239686</v>
+      </c>
+      <c r="M22" s="23">
+        <v>273027.8642593429</v>
+      </c>
+      <c r="N22" s="25">
+        <v>6</v>
+      </c>
+      <c r="O22" s="23">
+        <v>153.41576405035445</v>
+      </c>
+      <c r="P22" s="23">
+        <v>272989.00057558529</v>
+      </c>
+      <c r="Q22" s="26">
+        <v>1.4069099513368715</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="0"/>
+        <v>6.2669651188150892</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="6"/>
+        <v>1.63175635966</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" si="7"/>
+        <v>-4.6352087591550895</v>
+      </c>
+      <c r="U22" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.73962574727581698</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" si="3"/>
+        <v>3.9784224233800001</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.2885426954350891</v>
+      </c>
+      <c r="X22" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.36517559170136082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24">
+        <v>0.10286295275113171</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.17295945572543706</v>
+      </c>
+      <c r="E23" s="25">
+        <v>29.882972254084873</v>
+      </c>
+      <c r="F23" s="26">
+        <v>4.2694407294910901</v>
+      </c>
+      <c r="G23" s="25">
+        <v>15.539145572124134</v>
+      </c>
+      <c r="H23" s="26">
+        <v>3.0170714488403707</v>
+      </c>
+      <c r="I23" s="25">
+        <v>7.1157345491518162</v>
+      </c>
+      <c r="J23" s="23">
+        <v>177.27654247230538</v>
+      </c>
+      <c r="K23" s="23">
+        <v>410242.272</v>
+      </c>
+      <c r="L23" s="26">
+        <v>0.71638343768661239</v>
+      </c>
+      <c r="M23" s="23">
+        <v>293890.76909972628</v>
+      </c>
+      <c r="N23" s="25">
+        <v>7</v>
+      </c>
+      <c r="O23" s="23">
+        <v>126.95126011779683</v>
+      </c>
+      <c r="P23" s="23">
+        <v>293887.37638761225</v>
+      </c>
+      <c r="Q23" s="26">
+        <v>1.1233193302605406</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7467258123877931</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" si="6"/>
+        <v>2.7711276409800001</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.975598171407793</v>
+      </c>
+      <c r="U23" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.5892633377968497</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="3"/>
+        <v>4.6912353466200001</v>
+      </c>
+      <c r="W23" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.055490465767793</v>
+      </c>
+      <c r="X23" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.30466488826234311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24">
+        <v>7.91333185479378E-2</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.23557607516084833</v>
+      </c>
+      <c r="E24" s="25">
+        <v>19.484353568796756</v>
+      </c>
+      <c r="F24" s="26">
+        <v>3.8251565113216572</v>
+      </c>
+      <c r="G24" s="25">
+        <v>10.131863855774313</v>
+      </c>
+      <c r="H24" s="26">
+        <v>2.7031106013339721</v>
+      </c>
+      <c r="I24" s="25">
+        <v>6.3752608522027625</v>
+      </c>
+      <c r="J24" s="23">
+        <v>175.01273460059596</v>
+      </c>
+      <c r="K24" s="23">
+        <v>264071.17440000008</v>
+      </c>
+      <c r="L24" s="26">
+        <v>0.84183291103659852</v>
+      </c>
+      <c r="M24" s="23">
+        <v>222303.80546600537</v>
+      </c>
+      <c r="N24" s="25">
+        <v>7</v>
+      </c>
+      <c r="O24" s="23">
+        <v>147.07098379208341</v>
+      </c>
+      <c r="P24" s="23">
+        <v>222278.42245114551</v>
+      </c>
+      <c r="Q24" s="26">
+        <v>2.0216809819484132</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="0"/>
+        <v>5.1028104327627526</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" si="6"/>
+        <v>4.2556719588499998</v>
+      </c>
+      <c r="T24" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.84713847391275277</v>
+      </c>
+      <c r="U24" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.16601409851984192</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" si="3"/>
+        <v>4.8143805436299996</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.28842988913275303</v>
+      </c>
+      <c r="X24" s="28">
+        <f t="shared" si="5"/>
+        <v>-5.652373195776194E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24">
+        <v>7.7630056279441917E-2</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.24719753272708495</v>
+      </c>
+      <c r="E25" s="25">
+        <v>21.013163952298871</v>
+      </c>
+      <c r="F25" s="26">
+        <v>4.2893009539568654</v>
+      </c>
+      <c r="G25" s="25">
+        <v>10.926845255195413</v>
+      </c>
+      <c r="H25" s="26">
+        <v>3.031106007462852</v>
+      </c>
+      <c r="I25" s="25">
+        <v>7.1488349232614423</v>
+      </c>
+      <c r="J25" s="23">
+        <v>174.12370684899702</v>
+      </c>
+      <c r="K25" s="23">
+        <v>283344.44160000002</v>
+      </c>
+      <c r="L25" s="26">
+        <v>0.85520753340700795</v>
+      </c>
+      <c r="M25" s="23">
+        <v>242318.30100532202</v>
+      </c>
+      <c r="N25" s="25">
+        <v>7</v>
+      </c>
+      <c r="O25" s="23">
+        <v>148.82214707549866</v>
+      </c>
+      <c r="P25" s="23">
+        <v>242285.22657224545</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>1.9065995818852166</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5621034566631185</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="6"/>
+        <v>4.7959869901100003</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.76611646655311816</v>
+      </c>
+      <c r="U25" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.13773862218174843</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" si="3"/>
+        <v>5.3713792741499997</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.19072418251311873</v>
+      </c>
+      <c r="X25" s="28">
+        <f t="shared" si="5"/>
+        <v>-3.4289937970254904E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24">
+        <v>8.4042940714084594E-2</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.25436225755927039</v>
+      </c>
+      <c r="E26" s="25">
+        <v>14.519464816806556</v>
+      </c>
+      <c r="F26" s="26">
+        <v>3.1363805563048812</v>
+      </c>
+      <c r="G26" s="25">
+        <v>7.5501217047394089</v>
+      </c>
+      <c r="H26" s="26">
+        <v>2.2163755931221165</v>
+      </c>
+      <c r="I26" s="25">
+        <v>5.2273009271748023</v>
+      </c>
+      <c r="J26" s="23">
+        <v>322.94165516159126</v>
+      </c>
+      <c r="K26" s="23">
+        <v>363111.51360000001</v>
+      </c>
+      <c r="L26" s="26">
+        <v>0.80505033586362484</v>
+      </c>
+      <c r="M26" s="23">
+        <v>292323.04597962921</v>
+      </c>
+      <c r="N26" s="25">
+        <v>5</v>
+      </c>
+      <c r="O26" s="23">
+        <v>259.30068676632146</v>
+      </c>
+      <c r="P26" s="23">
+        <v>292303.04516132415</v>
+      </c>
+      <c r="Q26" s="26">
+        <v>2.592210540585147</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7103545721148796</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" si="6"/>
+        <v>5.07713242148</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.6332221506348796</v>
+      </c>
+      <c r="U26" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.24338835348906795</v>
+      </c>
+      <c r="V26" s="5">
+        <f t="shared" si="3"/>
+        <v>5.9088970991999998</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.80145747291487979</v>
+      </c>
+      <c r="X26" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.11943593506151899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24">
+        <v>9.6533190682206435E-2</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.1902630925820431</v>
+      </c>
+      <c r="E27" s="25">
+        <v>26.485569252134322</v>
+      </c>
+      <c r="F27" s="26">
+        <v>4.1701258096949347</v>
+      </c>
+      <c r="G27" s="25">
+        <v>13.772496011109848</v>
+      </c>
+      <c r="H27" s="26">
+        <v>2.9468889055177545</v>
+      </c>
+      <c r="I27" s="25">
+        <v>6.9502096828248918</v>
+      </c>
+      <c r="J27" s="23">
+        <v>177.7590640088132</v>
+      </c>
+      <c r="K27" s="23">
+        <v>364591.39199999999</v>
+      </c>
+      <c r="L27" s="26">
+        <v>0.73874819390445423</v>
+      </c>
+      <c r="M27" s="23">
+        <v>269341.23235311086</v>
+      </c>
+      <c r="N27" s="25">
+        <v>7</v>
+      </c>
+      <c r="O27" s="23">
+        <v>131.3184930167061</v>
+      </c>
+      <c r="P27" s="23">
+        <v>269311.07229068142</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>1.3074530559696897</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" si="0"/>
+        <v>6.1825315034591695</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="6"/>
+        <v>3.4582183404600002</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.7243131629991693</v>
+      </c>
+      <c r="U27" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.44064687118454587</v>
+      </c>
+      <c r="V27" s="5">
+        <f t="shared" si="3"/>
+        <v>4.8361165428700001</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.3464149605891693</v>
+      </c>
+      <c r="X27" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.21777729071592125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24">
+        <v>8.8991175450017376E-2</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0.17249491628256622</v>
+      </c>
+      <c r="E28" s="25">
+        <v>15.769429294233028</v>
+      </c>
+      <c r="F28" s="26">
+        <v>2.3890724243962165</v>
+      </c>
+      <c r="G28" s="25">
+        <v>8.2001032330011743</v>
+      </c>
+      <c r="H28" s="26">
+        <v>1.6882778465733264</v>
+      </c>
+      <c r="I28" s="25">
+        <v>3.981787373993694</v>
+      </c>
+      <c r="J28" s="23">
+        <v>153.2014859208322</v>
+      </c>
+      <c r="K28" s="23">
+        <v>187087.296</v>
+      </c>
+      <c r="L28" s="26">
+        <v>0.77735519934388986</v>
+      </c>
+      <c r="M28" s="23">
+        <v>145433.28227678934</v>
+      </c>
+      <c r="N28" s="25">
+        <v>4</v>
+      </c>
+      <c r="O28" s="23">
+        <v>119.09173873170944</v>
+      </c>
+      <c r="P28" s="23">
+        <v>145441.25450845665</v>
+      </c>
+      <c r="Q28" s="26">
+        <v>2.3107021205550229</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3388717747579579</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="6"/>
+        <v>2.3553603064900002</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.98351146826795777</v>
+      </c>
+      <c r="U28" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.29456401282114364</v>
+      </c>
+      <c r="V28" s="5">
+        <f t="shared" si="3"/>
+        <v>2.9023334084100001</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.43653836634795784</v>
+      </c>
+      <c r="X28" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.13074427405335248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24">
+        <v>8.4287300249568889E-2</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0.26982098170699809</v>
+      </c>
+      <c r="E29" s="25">
+        <v>18.154498376630585</v>
+      </c>
+      <c r="F29" s="26">
+        <v>4.062020793124276</v>
+      </c>
+      <c r="G29" s="25">
+        <v>9.4403391558479033</v>
+      </c>
+      <c r="H29" s="26">
+        <v>2.8704946938078222</v>
+      </c>
+      <c r="I29" s="25">
+        <v>6.7700346552071267</v>
+      </c>
+      <c r="J29" s="23">
+        <v>297.0040751410026</v>
+      </c>
+      <c r="K29" s="23">
+        <v>417553.3824</v>
+      </c>
+      <c r="L29" s="26">
+        <v>0.80620652895956235</v>
+      </c>
+      <c r="M29" s="23">
+        <v>336634.26308002882</v>
+      </c>
+      <c r="N29" s="25">
+        <v>7</v>
+      </c>
+      <c r="O29" s="23">
+        <v>239.3732807177168</v>
+      </c>
+      <c r="P29" s="23">
+        <v>336593.97603989998</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>2.08099142679897</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="0"/>
+        <v>7.7271344361776855</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="6"/>
+        <v>6.01265835294</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.7144760832376855</v>
+      </c>
+      <c r="U29" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.22187734630455977</v>
+      </c>
+      <c r="V29" s="5">
+        <f t="shared" si="3"/>
+        <v>7.0127491303799996</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.71438530579768589</v>
+      </c>
+      <c r="X29" s="28">
+        <f t="shared" si="5"/>
+        <v>-9.2451517661321383E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24">
+        <v>7.7457198338653693E-2</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.19987925454023348</v>
+      </c>
+      <c r="E30" s="25">
+        <v>11.682954306105234</v>
+      </c>
+      <c r="F30" s="26">
+        <v>2.0934183917045184</v>
+      </c>
+      <c r="G30" s="25">
+        <v>6.0751362391747215</v>
+      </c>
+      <c r="H30" s="26">
+        <v>1.4793489968045264</v>
+      </c>
+      <c r="I30" s="25">
+        <v>3.4890306528408637</v>
+      </c>
+      <c r="J30" s="23">
+        <v>194.54497042860618</v>
+      </c>
+      <c r="K30" s="23">
+        <v>176010.27839999998</v>
+      </c>
+      <c r="L30" s="26">
+        <v>0.86137689815255569</v>
+      </c>
+      <c r="M30" s="23">
+        <v>151611.18765115979</v>
+      </c>
+      <c r="N30" s="25">
+        <v>4</v>
+      </c>
+      <c r="O30" s="23">
+        <v>167.05867037920657</v>
+      </c>
+      <c r="P30" s="23">
+        <v>151521.05059081101</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>3.4453838661533522</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4784446875760104</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="6"/>
+        <v>3.1174939027200002</v>
+      </c>
+      <c r="T30" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.36095078485601029</v>
+      </c>
+      <c r="U30" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.10376786675528324</v>
+      </c>
+      <c r="V30" s="5">
+        <f t="shared" si="3"/>
+        <v>3.4946105763299999</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6165888753989499E-2</v>
+      </c>
+      <c r="X30" s="28">
+        <f t="shared" si="5"/>
+        <v>4.6474474099672588E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24">
+        <v>8.3283101802182791E-2</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0.32199526030698805</v>
+      </c>
+      <c r="E31" s="25">
+        <v>14.73171209935499</v>
+      </c>
+      <c r="F31" s="26">
+        <v>3.9430398506491504</v>
+      </c>
+      <c r="G31" s="25">
+        <v>7.6604902916645949</v>
+      </c>
+      <c r="H31" s="26">
+        <v>2.7864148277920671</v>
+      </c>
+      <c r="I31" s="25">
+        <v>6.5717330844152517</v>
+      </c>
+      <c r="J31" s="23">
+        <v>636.84654823051915</v>
+      </c>
+      <c r="K31" s="23">
+        <v>726529.68959999993</v>
+      </c>
+      <c r="L31" s="26">
+        <v>0.81762330148455697</v>
+      </c>
+      <c r="M31" s="23">
+        <v>594027.60343730228</v>
+      </c>
+      <c r="N31" s="25">
+        <v>7</v>
+      </c>
+      <c r="O31" s="23">
+        <v>519.69556212393172</v>
+      </c>
+      <c r="P31" s="23">
+        <v>594013.81557959435</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>2.5965833434123051</v>
+      </c>
+      <c r="R31" s="5">
+        <f t="shared" si="0"/>
+        <v>13.636680798429623</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="6"/>
+        <v>11.159835316300001</v>
+      </c>
+      <c r="T31" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.4768454821296224</v>
+      </c>
+      <c r="U31" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.18163111087962489</v>
+      </c>
+      <c r="V31" s="5">
+        <f t="shared" si="3"/>
+        <v>12.964054067699999</v>
+      </c>
+      <c r="W31" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.67262673072962365</v>
+      </c>
+      <c r="X31" s="28">
+        <f t="shared" si="5"/>
+        <v>-4.9324813029801372E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24">
+        <v>7.978525888359006E-2</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0.3677459958004724</v>
+      </c>
+      <c r="E32" s="25">
+        <v>18.265934581286349</v>
+      </c>
+      <c r="F32" s="26">
+        <v>5.4588282637988605</v>
+      </c>
+      <c r="G32" s="25">
+        <v>9.4982859822689019</v>
+      </c>
+      <c r="H32" s="26">
+        <v>3.8575719730845281</v>
+      </c>
+      <c r="I32" s="25">
+        <v>9.0980471063314354</v>
+      </c>
+      <c r="J32" s="23">
+        <v>683.27026708978156</v>
+      </c>
+      <c r="K32" s="23">
+        <v>966495.34080000001</v>
+      </c>
+      <c r="L32" s="26">
+        <v>0.84284587643707132</v>
+      </c>
+      <c r="M32" s="23">
+        <v>814606.61258892191</v>
+      </c>
+      <c r="N32" s="25">
+        <v>9</v>
+      </c>
+      <c r="O32" s="23">
+        <v>575.79851870642847</v>
+      </c>
+      <c r="P32" s="23">
+        <v>814547.51650353742</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>2.1626059999153751</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="0"/>
+        <v>18.699437936261191</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" si="6"/>
+        <v>16.1687829044</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.5306550318611905</v>
+      </c>
+      <c r="U32" s="47">
+        <f t="shared" si="8"/>
+        <v>-0.13533321378359972</v>
+      </c>
+      <c r="V32" s="5">
+        <f t="shared" si="3"/>
+        <v>18.406932423400001</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.2925055128611902</v>
+      </c>
+      <c r="X32" s="28">
+        <f t="shared" si="5"/>
+        <v>-1.5642476199457064E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="R33" s="2">
+        <f>SUM(R6:R32)</f>
+        <v>247.06675931382176</v>
+      </c>
+      <c r="S33" s="2">
+        <f>SUM(S6:S32)</f>
+        <v>122.9816170820847</v>
+      </c>
+      <c r="V33" s="5">
+        <f>SUM(V6:V32)</f>
+        <v>198.42383224994001</v>
+      </c>
+      <c r="W33" s="2">
+        <f t="shared" si="4"/>
+        <v>-48.642927063881757</v>
+      </c>
+      <c r="X33" s="28">
+        <f t="shared" si="5"/>
+        <v>-0.19688171407184724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A34" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="V34" s="49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" t="s">
+        <v>58</v>
+      </c>
+      <c r="M35" t="s">
+        <v>59</v>
+      </c>
+      <c r="N35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>63</v>
+      </c>
+      <c r="R35" t="s">
+        <v>64</v>
+      </c>
+      <c r="S35" t="s">
+        <v>65</v>
+      </c>
+      <c r="T35" t="s">
+        <v>66</v>
+      </c>
+      <c r="V35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W35" t="s">
+        <v>48</v>
+      </c>
+      <c r="X35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>0.12514900000000001</v>
+      </c>
+      <c r="C36">
+        <v>6.09</v>
+      </c>
+      <c r="D36">
+        <v>0.35</v>
+      </c>
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36">
+        <v>4.1519173260000004</v>
+      </c>
+      <c r="G36">
+        <v>1.799995E-3</v>
+      </c>
+      <c r="H36">
+        <v>0.57679448</v>
+      </c>
+      <c r="I36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>2008</v>
+      </c>
+      <c r="L36">
+        <v>1.06</v>
+      </c>
+      <c r="M36">
+        <v>331.8</v>
+      </c>
+      <c r="N36">
+        <v>80.095359999999999</v>
+      </c>
+      <c r="O36">
+        <v>4.8778074240000002</v>
+      </c>
+      <c r="P36">
+        <v>75.217552576000003</v>
+      </c>
+      <c r="Q36">
+        <v>0.39022459391999997</v>
+      </c>
+      <c r="R36">
+        <v>0.30125261943800002</v>
+      </c>
+      <c r="S36">
+        <v>2.5620814656399999</v>
+      </c>
+      <c r="T36">
+        <v>0.34159789779700001</v>
+      </c>
+      <c r="V36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36">
+        <v>0.12514900000000001</v>
+      </c>
+      <c r="X36">
+        <v>6.09</v>
+      </c>
+      <c r="Y36">
+        <v>0.35</v>
+      </c>
+      <c r="Z36">
+        <v>0.1</v>
+      </c>
+      <c r="AA36">
+        <v>4.1519173260000004</v>
+      </c>
+      <c r="AB36">
+        <v>1.799995E-3</v>
+      </c>
+      <c r="AC36">
+        <v>0.57679448</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE36">
+        <v>6</v>
+      </c>
+      <c r="AF36">
+        <v>2008</v>
+      </c>
+      <c r="AG36">
+        <v>1.06</v>
+      </c>
+      <c r="AH36">
+        <v>331.8</v>
+      </c>
+      <c r="AI36">
+        <v>80.095359999999999</v>
+      </c>
+      <c r="AJ36">
+        <v>4.8778074240000002</v>
+      </c>
+      <c r="AK36">
+        <v>75.217552576000003</v>
+      </c>
+      <c r="AL36">
+        <v>0.39022459391999997</v>
+      </c>
+      <c r="AM36">
+        <v>0.30125261943800002</v>
+      </c>
+      <c r="AN36">
+        <v>2.5620814656399999</v>
+      </c>
+      <c r="AO36">
+        <v>2.9523060595600001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>0.158605</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>0.35</v>
+      </c>
+      <c r="E37">
+        <v>0.1</v>
+      </c>
+      <c r="F37">
+        <v>4.0195076470000002</v>
+      </c>
+      <c r="G37">
+        <v>1.799999E-3</v>
+      </c>
+      <c r="H37">
+        <v>0.56796717399999996</v>
+      </c>
+      <c r="I37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>2008</v>
+      </c>
+      <c r="L37">
+        <v>1.06</v>
+      </c>
+      <c r="M37">
+        <v>331.8</v>
+      </c>
+      <c r="N37">
+        <v>101.5072</v>
+      </c>
+      <c r="O37">
+        <v>2.0301439999999999</v>
+      </c>
+      <c r="P37">
+        <v>99.477056000000005</v>
+      </c>
+      <c r="Q37">
+        <v>0.16241152</v>
+      </c>
+      <c r="R37">
+        <v>0.291863041165</v>
+      </c>
+      <c r="S37">
+        <v>3.4662528058099999</v>
+      </c>
+      <c r="T37">
+        <v>0.13787976633900001</v>
+      </c>
+      <c r="V37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W37">
+        <v>0.158605</v>
+      </c>
+      <c r="X37">
+        <v>2</v>
+      </c>
+      <c r="Y37">
+        <v>0.35</v>
+      </c>
+      <c r="Z37">
+        <v>0.1</v>
+      </c>
+      <c r="AA37">
+        <v>4.0195076470000002</v>
+      </c>
+      <c r="AB37">
+        <v>1.799999E-3</v>
+      </c>
+      <c r="AC37">
+        <v>0.56796717399999996</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE37">
+        <v>6</v>
+      </c>
+      <c r="AF37">
+        <v>2008</v>
+      </c>
+      <c r="AG37">
+        <v>1.06</v>
+      </c>
+      <c r="AH37">
+        <v>331.8</v>
+      </c>
+      <c r="AI37">
+        <v>101.5072</v>
+      </c>
+      <c r="AJ37">
+        <v>2.0301439999999999</v>
+      </c>
+      <c r="AK37">
+        <v>99.477056000000005</v>
+      </c>
+      <c r="AL37">
+        <v>0.16241152</v>
+      </c>
+      <c r="AM37">
+        <v>0.291863041165</v>
+      </c>
+      <c r="AN37">
+        <v>3.4662528058099999</v>
+      </c>
+      <c r="AO37">
+        <v>3.62866432581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>0.24989800000000001</v>
+      </c>
+      <c r="C38">
+        <v>5.0647428950000002</v>
+      </c>
+      <c r="D38">
+        <v>0.35</v>
+      </c>
+      <c r="E38">
+        <v>0.1</v>
+      </c>
+      <c r="F38">
+        <v>3.582964145</v>
+      </c>
+      <c r="G38">
+        <v>1.799999E-3</v>
+      </c>
+      <c r="H38">
+        <v>0.53886427800000003</v>
+      </c>
+      <c r="I38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>2008</v>
+      </c>
+      <c r="L38">
+        <v>1.06</v>
+      </c>
+      <c r="M38">
+        <v>331.8</v>
+      </c>
+      <c r="N38">
+        <v>159.93472</v>
+      </c>
+      <c r="O38">
+        <v>8.1002823678400002</v>
+      </c>
+      <c r="P38">
+        <v>151.834437632</v>
+      </c>
+      <c r="Q38">
+        <v>0.64802258942699997</v>
+      </c>
+      <c r="R38">
+        <v>0.26090688522900002</v>
+      </c>
+      <c r="S38">
+        <v>5.6823167104700003</v>
+      </c>
+      <c r="T38">
+        <v>0.60914342019300005</v>
+      </c>
+      <c r="V38" t="s">
+        <v>22</v>
+      </c>
+      <c r="W38">
+        <v>0.24989800000000001</v>
+      </c>
+      <c r="X38">
+        <v>5.0647428950000002</v>
+      </c>
+      <c r="Y38">
+        <v>0.35</v>
+      </c>
+      <c r="Z38">
+        <v>0.1</v>
+      </c>
+      <c r="AA38">
+        <v>3.582964145</v>
+      </c>
+      <c r="AB38">
+        <v>1.799999E-3</v>
+      </c>
+      <c r="AC38">
+        <v>0.53886427800000003</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE38">
+        <v>6</v>
+      </c>
+      <c r="AF38">
+        <v>2008</v>
+      </c>
+      <c r="AG38">
+        <v>1.06</v>
+      </c>
+      <c r="AH38">
+        <v>331.8</v>
+      </c>
+      <c r="AI38">
+        <v>159.93472</v>
+      </c>
+      <c r="AJ38">
+        <v>8.1002823678400002</v>
+      </c>
+      <c r="AK38">
+        <v>151.834437632</v>
+      </c>
+      <c r="AL38">
+        <v>0.64802258942699997</v>
+      </c>
+      <c r="AM38">
+        <v>0.26090688522900002</v>
+      </c>
+      <c r="AN38">
+        <v>5.6823167104700003</v>
+      </c>
+      <c r="AO38">
+        <v>6.3303392999000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>0.29051399999999999</v>
+      </c>
+      <c r="C39">
+        <v>17.42338655</v>
+      </c>
+      <c r="D39">
+        <v>0.35</v>
+      </c>
+      <c r="E39">
+        <v>0.1</v>
+      </c>
+      <c r="F39">
+        <v>3.3135071360000001</v>
+      </c>
+      <c r="G39">
+        <v>1.8000030000000001E-3</v>
+      </c>
+      <c r="H39">
+        <v>0.52090047100000003</v>
+      </c>
+      <c r="I39" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>2008</v>
+      </c>
+      <c r="L39">
+        <v>1.06</v>
+      </c>
+      <c r="M39">
+        <v>331.8</v>
+      </c>
+      <c r="N39">
+        <v>185.92895999999999</v>
+      </c>
+      <c r="O39">
+        <v>32.395121409200001</v>
+      </c>
+      <c r="P39">
+        <v>153.53383859100001</v>
+      </c>
+      <c r="Q39">
+        <v>2.59160971274</v>
+      </c>
+      <c r="R39">
+        <v>0.24179904414799999</v>
+      </c>
+      <c r="S39">
+        <v>5.9903908319800001</v>
+      </c>
+      <c r="T39">
+        <v>2.8409637814300002</v>
+      </c>
+      <c r="V39" t="s">
+        <v>23</v>
+      </c>
+      <c r="W39">
+        <v>0.29051399999999999</v>
+      </c>
+      <c r="X39">
+        <v>17.42338655</v>
+      </c>
+      <c r="Y39">
+        <v>0.35</v>
+      </c>
+      <c r="Z39">
+        <v>0.1</v>
+      </c>
+      <c r="AA39">
+        <v>3.3135071360000001</v>
+      </c>
+      <c r="AB39">
+        <v>1.8000030000000001E-3</v>
+      </c>
+      <c r="AC39">
+        <v>0.52090047100000003</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE39">
+        <v>6</v>
+      </c>
+      <c r="AF39">
+        <v>2008</v>
+      </c>
+      <c r="AG39">
+        <v>1.06</v>
+      </c>
+      <c r="AH39">
+        <v>331.8</v>
+      </c>
+      <c r="AI39">
+        <v>185.92895999999999</v>
+      </c>
+      <c r="AJ39">
+        <v>32.395121409200001</v>
+      </c>
+      <c r="AK39">
+        <v>153.53383859100001</v>
+      </c>
+      <c r="AL39">
+        <v>2.59160971274</v>
+      </c>
+      <c r="AM39">
+        <v>0.24179904414799999</v>
+      </c>
+      <c r="AN39">
+        <v>5.9903908319800001</v>
+      </c>
+      <c r="AO39">
+        <v>8.5820005447199996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>0.20503099999999999</v>
+      </c>
+      <c r="C40">
+        <v>11.82</v>
+      </c>
+      <c r="D40">
+        <v>0.35</v>
+      </c>
+      <c r="E40">
+        <v>0.1</v>
+      </c>
+      <c r="F40">
+        <v>4.5000000189999998</v>
+      </c>
+      <c r="G40">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H40">
+        <v>0.60000000200000003</v>
+      </c>
+      <c r="I40" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>2008</v>
+      </c>
+      <c r="L40">
+        <v>1.06</v>
+      </c>
+      <c r="M40">
+        <v>331.8</v>
+      </c>
+      <c r="N40">
+        <v>131.21984</v>
+      </c>
+      <c r="O40">
+        <v>15.510185088</v>
+      </c>
+      <c r="P40">
+        <v>115.709654912</v>
+      </c>
+      <c r="Q40">
+        <v>1.24081480704</v>
+      </c>
+      <c r="R40">
+        <v>0.325935657391</v>
+      </c>
+      <c r="S40">
+        <v>3.7033293789399999</v>
+      </c>
+      <c r="T40">
+        <v>1.1103553394500001</v>
+      </c>
+      <c r="V40" t="s">
+        <v>24</v>
+      </c>
+      <c r="W40">
+        <v>0.20503099999999999</v>
+      </c>
+      <c r="X40">
+        <v>11.82</v>
+      </c>
+      <c r="Y40">
+        <v>0.35</v>
+      </c>
+      <c r="Z40">
+        <v>0.1</v>
+      </c>
+      <c r="AA40">
+        <v>4.5000000189999998</v>
+      </c>
+      <c r="AB40">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AC40">
+        <v>0.60000000200000003</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE40">
+        <v>6</v>
+      </c>
+      <c r="AF40">
+        <v>2008</v>
+      </c>
+      <c r="AG40">
+        <v>1.06</v>
+      </c>
+      <c r="AH40">
+        <v>331.8</v>
+      </c>
+      <c r="AI40">
+        <v>131.21984</v>
+      </c>
+      <c r="AJ40">
+        <v>15.510185088</v>
+      </c>
+      <c r="AK40">
+        <v>115.709654912</v>
+      </c>
+      <c r="AL40">
+        <v>1.24081480704</v>
+      </c>
+      <c r="AM40">
+        <v>0.325935657391</v>
+      </c>
+      <c r="AN40">
+        <v>3.7033293789399999</v>
+      </c>
+      <c r="AO40">
+        <v>4.9441441859799999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>0.97666500000000001</v>
+      </c>
+      <c r="C41">
+        <v>35.731489590000002</v>
+      </c>
+      <c r="D41">
+        <v>0.35</v>
+      </c>
+      <c r="E41">
+        <v>0.1</v>
+      </c>
+      <c r="F41">
+        <v>3.8501119629999998</v>
+      </c>
+      <c r="G41">
+        <v>1.8000010000000001E-3</v>
+      </c>
+      <c r="H41">
+        <v>0.55667412999999999</v>
+      </c>
+      <c r="I41" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>2008</v>
+      </c>
+      <c r="L41">
+        <v>1.06</v>
+      </c>
+      <c r="M41">
+        <v>331.8</v>
+      </c>
+      <c r="N41">
+        <v>625.06560000000002</v>
+      </c>
+      <c r="O41">
+        <v>223.345249795</v>
+      </c>
+      <c r="P41">
+        <v>401.72035020499999</v>
+      </c>
+      <c r="Q41">
+        <v>17.867619983600001</v>
+      </c>
+      <c r="R41">
+        <v>0.279850792643</v>
+      </c>
+      <c r="S41">
+        <v>14.399974185</v>
+      </c>
+      <c r="T41">
+        <v>21.906265829900001</v>
+      </c>
+      <c r="V41" t="s">
+        <v>25</v>
+      </c>
+      <c r="W41">
+        <v>0.97666500000000001</v>
+      </c>
+      <c r="X41">
+        <v>35.731489590000002</v>
+      </c>
+      <c r="Y41">
+        <v>0.35</v>
+      </c>
+      <c r="Z41">
+        <v>0.1</v>
+      </c>
+      <c r="AA41">
+        <v>3.8501119629999998</v>
+      </c>
+      <c r="AB41">
+        <v>1.8000010000000001E-3</v>
+      </c>
+      <c r="AC41">
+        <v>0.55667412999999999</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE41">
+        <v>6</v>
+      </c>
+      <c r="AF41">
+        <v>2008</v>
+      </c>
+      <c r="AG41">
+        <v>1.06</v>
+      </c>
+      <c r="AH41">
+        <v>331.8</v>
+      </c>
+      <c r="AI41">
+        <v>625.06560000000002</v>
+      </c>
+      <c r="AJ41">
+        <v>223.345249795</v>
+      </c>
+      <c r="AK41">
+        <v>401.72035020499999</v>
+      </c>
+      <c r="AL41">
+        <v>17.867619983600001</v>
+      </c>
+      <c r="AM41">
+        <v>0.279850792643</v>
+      </c>
+      <c r="AN41">
+        <v>14.399974185</v>
+      </c>
+      <c r="AO41">
+        <v>32.267594168599999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>0.12638199999999999</v>
+      </c>
+      <c r="C42">
+        <v>29.49</v>
+      </c>
+      <c r="D42">
+        <v>0.35</v>
+      </c>
+      <c r="E42">
+        <v>0.1</v>
+      </c>
+      <c r="F42">
+        <v>4.5000000370000004</v>
+      </c>
+      <c r="G42">
+        <v>1.800002E-3</v>
+      </c>
+      <c r="H42">
+        <v>0.60000001199999997</v>
+      </c>
+      <c r="I42" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>2008</v>
+      </c>
+      <c r="L42">
+        <v>1.06</v>
+      </c>
+      <c r="M42">
+        <v>331.8</v>
+      </c>
+      <c r="N42">
+        <v>80.884479999999996</v>
+      </c>
+      <c r="O42">
+        <v>23.852833151999999</v>
+      </c>
+      <c r="P42">
+        <v>57.031646848000001</v>
+      </c>
+      <c r="Q42">
+        <v>1.90822665216</v>
+      </c>
+      <c r="R42">
+        <v>0.32593557795599998</v>
+      </c>
+      <c r="S42">
+        <v>1.8253188737399999</v>
+      </c>
+      <c r="T42">
+        <v>2.0919436308499999</v>
+      </c>
+      <c r="V42" t="s">
+        <v>26</v>
+      </c>
+      <c r="W42">
+        <v>0.12638199999999999</v>
+      </c>
+      <c r="X42">
+        <v>29.49</v>
+      </c>
+      <c r="Y42">
+        <v>0.35</v>
+      </c>
+      <c r="Z42">
+        <v>0.1</v>
+      </c>
+      <c r="AA42">
+        <v>4.5000000370000004</v>
+      </c>
+      <c r="AB42">
+        <v>1.800002E-3</v>
+      </c>
+      <c r="AC42">
+        <v>0.60000001199999997</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE42">
+        <v>6</v>
+      </c>
+      <c r="AF42">
+        <v>2008</v>
+      </c>
+      <c r="AG42">
+        <v>1.06</v>
+      </c>
+      <c r="AH42">
+        <v>331.8</v>
+      </c>
+      <c r="AI42">
+        <v>80.884479999999996</v>
+      </c>
+      <c r="AJ42">
+        <v>23.852833151999999</v>
+      </c>
+      <c r="AK42">
+        <v>57.031646848000001</v>
+      </c>
+      <c r="AL42">
+        <v>1.90822665216</v>
+      </c>
+      <c r="AM42">
+        <v>0.32593557795599998</v>
+      </c>
+      <c r="AN42">
+        <v>1.8253188737399999</v>
+      </c>
+      <c r="AO42">
+        <v>3.7335455258999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43">
+        <v>0.45819900000000002</v>
+      </c>
+      <c r="C43">
+        <v>26.62683878</v>
+      </c>
+      <c r="D43">
+        <v>0.35</v>
+      </c>
+      <c r="E43">
+        <v>0.1</v>
+      </c>
+      <c r="F43">
+        <v>4.5152777420000003</v>
+      </c>
+      <c r="G43">
+        <v>1.7663889999999999E-3</v>
+      </c>
+      <c r="H43">
+        <v>0.61222220500000002</v>
+      </c>
+      <c r="I43" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>2008</v>
+      </c>
+      <c r="L43">
+        <v>1.06</v>
+      </c>
+      <c r="M43">
+        <v>331.8</v>
+      </c>
+      <c r="N43">
+        <v>293.24736000000001</v>
+      </c>
+      <c r="O43">
+        <v>78.082501773800004</v>
+      </c>
+      <c r="P43">
+        <v>215.16485822600001</v>
+      </c>
+      <c r="Q43">
+        <v>6.2466001419000001</v>
+      </c>
+      <c r="R43">
+        <v>0.32863980033500001</v>
+      </c>
+      <c r="S43">
+        <v>6.8379427745100001</v>
+      </c>
+      <c r="T43">
+        <v>6.6195131312399997</v>
+      </c>
+      <c r="V43" t="s">
+        <v>27</v>
+      </c>
+      <c r="W43">
+        <v>0.45819900000000002</v>
+      </c>
+      <c r="X43">
+        <v>26.62683878</v>
+      </c>
+      <c r="Y43">
+        <v>0.35</v>
+      </c>
+      <c r="Z43">
+        <v>0.1</v>
+      </c>
+      <c r="AA43">
+        <v>4.5152777420000003</v>
+      </c>
+      <c r="AB43">
+        <v>1.7663889999999999E-3</v>
+      </c>
+      <c r="AC43">
+        <v>0.61222220500000002</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE43">
+        <v>6</v>
+      </c>
+      <c r="AF43">
+        <v>2008</v>
+      </c>
+      <c r="AG43">
+        <v>1.06</v>
+      </c>
+      <c r="AH43">
+        <v>331.8</v>
+      </c>
+      <c r="AI43">
+        <v>293.24736000000001</v>
+      </c>
+      <c r="AJ43">
+        <v>78.082501773800004</v>
+      </c>
+      <c r="AK43">
+        <v>215.16485822600001</v>
+      </c>
+      <c r="AL43">
+        <v>6.2466001419000001</v>
+      </c>
+      <c r="AM43">
+        <v>0.32863980033500001</v>
+      </c>
+      <c r="AN43">
+        <v>6.8379427745100001</v>
+      </c>
+      <c r="AO43">
+        <v>13.0845429164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44">
+        <v>0.18979699999999999</v>
+      </c>
+      <c r="C44">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D44">
+        <v>0.35</v>
+      </c>
+      <c r="E44">
+        <v>0.1</v>
+      </c>
+      <c r="F44">
+        <v>4.4999999839999996</v>
+      </c>
+      <c r="G44">
+        <v>1.7999979999999999E-3</v>
+      </c>
+      <c r="H44">
+        <v>0.59999999500000001</v>
+      </c>
+      <c r="I44" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>2008</v>
+      </c>
+      <c r="L44">
+        <v>1.06</v>
+      </c>
+      <c r="M44">
+        <v>331.8</v>
+      </c>
+      <c r="N44">
+        <v>121.47008</v>
+      </c>
+      <c r="O44">
+        <v>5.8427108480000003</v>
+      </c>
+      <c r="P44">
+        <v>115.627369152</v>
+      </c>
+      <c r="Q44">
+        <v>0.46741686784000003</v>
+      </c>
+      <c r="R44">
+        <v>0.32593573571399997</v>
+      </c>
+      <c r="S44">
+        <v>3.7006950387300002</v>
+      </c>
+      <c r="T44">
+        <v>0.38092422671999998</v>
+      </c>
+      <c r="V44" t="s">
+        <v>28</v>
+      </c>
+      <c r="W44">
+        <v>0.18979699999999999</v>
+      </c>
+      <c r="X44">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="Y44">
+        <v>0.35</v>
+      </c>
+      <c r="Z44">
+        <v>0.1</v>
+      </c>
+      <c r="AA44">
+        <v>4.4999999839999996</v>
+      </c>
+      <c r="AB44">
+        <v>1.7999979999999999E-3</v>
+      </c>
+      <c r="AC44">
+        <v>0.59999999500000001</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE44">
+        <v>6</v>
+      </c>
+      <c r="AF44">
+        <v>2008</v>
+      </c>
+      <c r="AG44">
+        <v>1.06</v>
+      </c>
+      <c r="AH44">
+        <v>331.8</v>
+      </c>
+      <c r="AI44">
+        <v>121.47008</v>
+      </c>
+      <c r="AJ44">
+        <v>5.8427108480000003</v>
+      </c>
+      <c r="AK44">
+        <v>115.627369152</v>
+      </c>
+      <c r="AL44">
+        <v>0.46741686784000003</v>
+      </c>
+      <c r="AM44">
+        <v>0.32593573571399997</v>
+      </c>
+      <c r="AN44">
+        <v>3.7006950387300002</v>
+      </c>
+      <c r="AO44">
+        <v>4.1681119065700001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>0.17807700000000001</v>
+      </c>
+      <c r="C45">
+        <v>7.62</v>
+      </c>
+      <c r="D45">
+        <v>0.35</v>
+      </c>
+      <c r="E45">
+        <v>0.1</v>
+      </c>
+      <c r="F45">
+        <v>4.4999999910000001</v>
+      </c>
+      <c r="G45">
+        <v>1.800002E-3</v>
+      </c>
+      <c r="H45">
+        <v>0.59999999599999998</v>
+      </c>
+      <c r="I45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>2008</v>
+      </c>
+      <c r="L45">
+        <v>1.06</v>
+      </c>
+      <c r="M45">
+        <v>331.8</v>
+      </c>
+      <c r="N45">
+        <v>113.96928</v>
+      </c>
+      <c r="O45">
+        <v>8.6844591359999992</v>
+      </c>
+      <c r="P45">
+        <v>105.284820864</v>
+      </c>
+      <c r="Q45">
+        <v>0.69475673088000001</v>
+      </c>
+      <c r="R45">
+        <v>0.32593557439999998</v>
+      </c>
+      <c r="S45">
+        <v>3.3696795207900001</v>
+      </c>
+      <c r="T45">
+        <v>0.58840864386400005</v>
+      </c>
+      <c r="V45" t="s">
+        <v>29</v>
+      </c>
+      <c r="W45">
+        <v>0.17807700000000001</v>
+      </c>
+      <c r="X45">
+        <v>7.62</v>
+      </c>
+      <c r="Y45">
+        <v>0.35</v>
+      </c>
+      <c r="Z45">
+        <v>0.1</v>
+      </c>
+      <c r="AA45">
+        <v>4.4999999910000001</v>
+      </c>
+      <c r="AB45">
+        <v>1.800002E-3</v>
+      </c>
+      <c r="AC45">
+        <v>0.59999999599999998</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE45">
+        <v>6</v>
+      </c>
+      <c r="AF45">
+        <v>2008</v>
+      </c>
+      <c r="AG45">
+        <v>1.06</v>
+      </c>
+      <c r="AH45">
+        <v>331.8</v>
+      </c>
+      <c r="AI45">
+        <v>113.96928</v>
+      </c>
+      <c r="AJ45">
+        <v>8.6844591359999992</v>
+      </c>
+      <c r="AK45">
+        <v>105.284820864</v>
+      </c>
+      <c r="AL45">
+        <v>0.69475673088000001</v>
+      </c>
+      <c r="AM45">
+        <v>0.32593557439999998</v>
+      </c>
+      <c r="AN45">
+        <v>3.3696795207900001</v>
+      </c>
+      <c r="AO45">
+        <v>4.0644362516700001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46">
+        <v>5.7478000000000001E-2</v>
+      </c>
+      <c r="C46">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="D46">
+        <v>0.35</v>
+      </c>
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+      <c r="F46">
+        <v>4.6070623550000001</v>
+      </c>
+      <c r="G46">
+        <v>1.5644649999999999E-3</v>
+      </c>
+      <c r="H46">
+        <v>0.68564994400000001</v>
+      </c>
+      <c r="I46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46">
+        <v>2008</v>
+      </c>
+      <c r="L46">
+        <v>1.06</v>
+      </c>
+      <c r="M46">
+        <v>331.8</v>
+      </c>
+      <c r="N46">
+        <v>36.785919999999997</v>
+      </c>
+      <c r="O46">
+        <v>3.693306368</v>
+      </c>
+      <c r="P46">
+        <v>33.092613632000003</v>
+      </c>
+      <c r="Q46">
+        <v>0.29546450944000002</v>
+      </c>
+      <c r="R46">
+        <v>0.34513788930799999</v>
+      </c>
+      <c r="S46">
+        <v>1.00618673817</v>
+      </c>
+      <c r="T46">
+        <v>0.24829145869700001</v>
+      </c>
+      <c r="V46" t="s">
+        <v>30</v>
+      </c>
+      <c r="W46">
+        <v>5.7478000000000001E-2</v>
+      </c>
+      <c r="X46">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0.35</v>
+      </c>
+      <c r="Z46">
+        <v>0.1</v>
+      </c>
+      <c r="AA46">
+        <v>4.6070623550000001</v>
+      </c>
+      <c r="AB46">
+        <v>1.5644649999999999E-3</v>
+      </c>
+      <c r="AC46">
+        <v>0.68564994400000001</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE46">
+        <v>6</v>
+      </c>
+      <c r="AF46">
+        <v>2008</v>
+      </c>
+      <c r="AG46">
+        <v>1.06</v>
+      </c>
+      <c r="AH46">
+        <v>331.8</v>
+      </c>
+      <c r="AI46">
+        <v>36.785919999999997</v>
+      </c>
+      <c r="AJ46">
+        <v>3.693306368</v>
+      </c>
+      <c r="AK46">
+        <v>33.092613632000003</v>
+      </c>
+      <c r="AL46">
+        <v>0.29546450944000002</v>
+      </c>
+      <c r="AM46">
+        <v>0.34513788930799999</v>
+      </c>
+      <c r="AN46">
+        <v>1.00618673817</v>
+      </c>
+      <c r="AO46">
+        <v>1.30165124761</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47">
+        <v>8.8133000000000003E-2</v>
+      </c>
+      <c r="C47">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D47">
+        <v>0.35</v>
+      </c>
+      <c r="E47">
+        <v>0.1</v>
+      </c>
+      <c r="F47">
+        <v>4.8540543920000001</v>
+      </c>
+      <c r="G47">
+        <v>1.0210919999999999E-3</v>
+      </c>
+      <c r="H47">
+        <v>0.88324355300000001</v>
+      </c>
+      <c r="I47" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <v>2008</v>
+      </c>
+      <c r="L47">
+        <v>1.06</v>
+      </c>
+      <c r="M47">
+        <v>331.8</v>
+      </c>
+      <c r="N47">
+        <v>56.405119999999997</v>
+      </c>
+      <c r="O47">
+        <v>1.427049536</v>
+      </c>
+      <c r="P47">
+        <v>54.978070463999998</v>
+      </c>
+      <c r="Q47">
+        <v>0.11416396288</v>
+      </c>
+      <c r="R47">
+        <v>0.39183231263099999</v>
+      </c>
+      <c r="S47">
+        <v>1.4576871279600001</v>
+      </c>
+      <c r="T47">
+        <v>7.5556674474700006E-2</v>
+      </c>
+      <c r="V47" t="s">
+        <v>31</v>
+      </c>
+      <c r="W47">
+        <v>8.8133000000000003E-2</v>
+      </c>
+      <c r="X47">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Y47">
+        <v>0.35</v>
+      </c>
+      <c r="Z47">
+        <v>0.1</v>
+      </c>
+      <c r="AA47">
+        <v>4.8540543920000001</v>
+      </c>
+      <c r="AB47">
+        <v>1.0210919999999999E-3</v>
+      </c>
+      <c r="AC47">
+        <v>0.88324355300000001</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE47">
+        <v>6</v>
+      </c>
+      <c r="AF47">
+        <v>2008</v>
+      </c>
+      <c r="AG47">
+        <v>1.06</v>
+      </c>
+      <c r="AH47">
+        <v>331.8</v>
+      </c>
+      <c r="AI47">
+        <v>56.405119999999997</v>
+      </c>
+      <c r="AJ47">
+        <v>1.427049536</v>
+      </c>
+      <c r="AK47">
+        <v>54.978070463999998</v>
+      </c>
+      <c r="AL47">
+        <v>0.11416396288</v>
+      </c>
+      <c r="AM47">
+        <v>0.39183231263099999</v>
+      </c>
+      <c r="AN47">
+        <v>1.4576871279600001</v>
+      </c>
+      <c r="AO47">
+        <v>1.5718510908400001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <v>0.67761800000000005</v>
+      </c>
+      <c r="C48">
+        <v>47.965084990000001</v>
+      </c>
+      <c r="D48">
+        <v>0.35</v>
+      </c>
+      <c r="E48">
+        <v>0.1</v>
+      </c>
+      <c r="F48">
+        <v>4.261170806</v>
+      </c>
+      <c r="G48">
+        <v>1.7117230000000001E-3</v>
+      </c>
+      <c r="H48">
+        <v>0.61350209600000005</v>
+      </c>
+      <c r="I48" t="s">
+        <v>91</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
+      </c>
+      <c r="K48">
+        <v>2008</v>
+      </c>
+      <c r="L48">
+        <v>1.06</v>
+      </c>
+      <c r="M48">
+        <v>331.8</v>
+      </c>
+      <c r="N48">
+        <v>433.67552000000001</v>
+      </c>
+      <c r="O48">
+        <v>208.01283174899999</v>
+      </c>
+      <c r="P48">
+        <v>225.66268825099999</v>
+      </c>
+      <c r="Q48">
+        <v>16.6410265399</v>
+      </c>
+      <c r="R48">
+        <v>0.31304126697200002</v>
+      </c>
+      <c r="S48">
+        <v>7.4648979016599997</v>
+      </c>
+      <c r="T48">
+        <v>19.2324368662</v>
+      </c>
+      <c r="V48" t="s">
+        <v>32</v>
+      </c>
+      <c r="W48">
+        <v>0.67761800000000005</v>
+      </c>
+      <c r="X48">
+        <v>47.965084990000001</v>
+      </c>
+      <c r="Y48">
+        <v>0.35</v>
+      </c>
+      <c r="Z48">
+        <v>0.1</v>
+      </c>
+      <c r="AA48">
+        <v>4.261170806</v>
+      </c>
+      <c r="AB48">
+        <v>1.7117230000000001E-3</v>
+      </c>
+      <c r="AC48">
+        <v>0.61350209600000005</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE48">
+        <v>6</v>
+      </c>
+      <c r="AF48">
+        <v>2008</v>
+      </c>
+      <c r="AG48">
+        <v>1.06</v>
+      </c>
+      <c r="AH48">
+        <v>331.8</v>
+      </c>
+      <c r="AI48">
+        <v>433.67552000000001</v>
+      </c>
+      <c r="AJ48">
+        <v>208.01283174899999</v>
+      </c>
+      <c r="AK48">
+        <v>225.66268825099999</v>
+      </c>
+      <c r="AL48">
+        <v>16.6410265399</v>
+      </c>
+      <c r="AM48">
+        <v>0.31304126697200002</v>
+      </c>
+      <c r="AN48">
+        <v>7.4648979016599997</v>
+      </c>
+      <c r="AO48">
+        <v>24.105924441599999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49">
+        <v>0.15074699999999999</v>
+      </c>
+      <c r="C49">
+        <v>25.84</v>
+      </c>
+      <c r="D49">
+        <v>0.35</v>
+      </c>
+      <c r="E49">
+        <v>0.1</v>
+      </c>
+      <c r="F49">
+        <v>4.5560033449999997</v>
+      </c>
+      <c r="G49">
+        <v>1.67279E-3</v>
+      </c>
+      <c r="H49">
+        <v>0.646139515</v>
+      </c>
+      <c r="I49" t="s">
+        <v>91</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+      <c r="K49">
+        <v>2008</v>
+      </c>
+      <c r="L49">
+        <v>1.06</v>
+      </c>
+      <c r="M49">
+        <v>331.8</v>
+      </c>
+      <c r="N49">
+        <v>96.478080000000006</v>
+      </c>
+      <c r="O49">
+        <v>24.929935872000001</v>
+      </c>
+      <c r="P49">
+        <v>71.548144128000004</v>
+      </c>
+      <c r="Q49">
+        <v>1.99439486976</v>
+      </c>
+      <c r="R49">
+        <v>0.33610159409500001</v>
+      </c>
+      <c r="S49">
+        <v>2.2293114195800001</v>
+      </c>
+      <c r="T49">
+        <v>2.0736671543799998</v>
+      </c>
+      <c r="V49" t="s">
+        <v>33</v>
+      </c>
+      <c r="W49">
+        <v>0.15074699999999999</v>
+      </c>
+      <c r="X49">
+        <v>25.84</v>
+      </c>
+      <c r="Y49">
+        <v>0.35</v>
+      </c>
+      <c r="Z49">
+        <v>0.1</v>
+      </c>
+      <c r="AA49">
+        <v>4.5560033449999997</v>
+      </c>
+      <c r="AB49">
+        <v>1.67279E-3</v>
+      </c>
+      <c r="AC49">
+        <v>0.646139515</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE49">
+        <v>6</v>
+      </c>
+      <c r="AF49">
+        <v>2008</v>
+      </c>
+      <c r="AG49">
+        <v>1.06</v>
+      </c>
+      <c r="AH49">
+        <v>331.8</v>
+      </c>
+      <c r="AI49">
+        <v>96.478080000000006</v>
+      </c>
+      <c r="AJ49">
+        <v>24.929935872000001</v>
+      </c>
+      <c r="AK49">
+        <v>71.548144128000004</v>
+      </c>
+      <c r="AL49">
+        <v>1.99439486976</v>
+      </c>
+      <c r="AM49">
+        <v>0.33610159409500001</v>
+      </c>
+      <c r="AN49">
+        <v>2.2293114195800001</v>
+      </c>
+      <c r="AO49">
+        <v>4.2237062893399999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50">
+        <v>0.200602</v>
+      </c>
+      <c r="C50">
+        <v>28.3</v>
+      </c>
+      <c r="D50">
+        <v>0.35</v>
+      </c>
+      <c r="E50">
+        <v>0.1</v>
+      </c>
+      <c r="F50">
+        <v>4.9573547270000002</v>
+      </c>
+      <c r="G50">
+        <v>7.93821E-4</v>
+      </c>
+      <c r="H50">
+        <v>0.965883783</v>
+      </c>
+      <c r="I50" t="s">
+        <v>91</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <v>2008</v>
+      </c>
+      <c r="L50">
+        <v>1.06</v>
+      </c>
+      <c r="M50">
+        <v>331.8</v>
+      </c>
+      <c r="N50">
+        <v>128.38527999999999</v>
+      </c>
+      <c r="O50">
+        <v>36.333034240000003</v>
+      </c>
+      <c r="P50">
+        <v>92.052245760000005</v>
+      </c>
+      <c r="Q50">
+        <v>2.9066427392</v>
+      </c>
+      <c r="R50">
+        <v>0.41244247717900001</v>
+      </c>
+      <c r="S50">
+        <v>2.2825698515399999</v>
+      </c>
+      <c r="T50">
+        <v>2.7899410377799998</v>
+      </c>
+      <c r="V50" t="s">
+        <v>34</v>
+      </c>
+      <c r="W50">
+        <v>0.200602</v>
+      </c>
+      <c r="X50">
+        <v>28.3</v>
+      </c>
+      <c r="Y50">
+        <v>0.35</v>
+      </c>
+      <c r="Z50">
+        <v>0.1</v>
+      </c>
+      <c r="AA50">
+        <v>4.9573547270000002</v>
+      </c>
+      <c r="AB50">
+        <v>7.93821E-4</v>
+      </c>
+      <c r="AC50">
+        <v>0.965883783</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE50">
+        <v>6</v>
+      </c>
+      <c r="AF50">
+        <v>2008</v>
+      </c>
+      <c r="AG50">
+        <v>1.06</v>
+      </c>
+      <c r="AH50">
+        <v>331.8</v>
+      </c>
+      <c r="AI50">
+        <v>128.38527999999999</v>
+      </c>
+      <c r="AJ50">
+        <v>36.333034240000003</v>
+      </c>
+      <c r="AK50">
+        <v>92.052245760000005</v>
+      </c>
+      <c r="AL50">
+        <v>2.9066427392</v>
+      </c>
+      <c r="AM50">
+        <v>0.41244247717900001</v>
+      </c>
+      <c r="AN50">
+        <v>2.2825698515399999</v>
+      </c>
+      <c r="AO50">
+        <v>5.1892125907400004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>0.18603500000000001</v>
+      </c>
+      <c r="C51">
+        <v>15.28</v>
+      </c>
+      <c r="D51">
+        <v>0.35</v>
+      </c>
+      <c r="E51">
+        <v>0.1</v>
+      </c>
+      <c r="F51">
+        <v>4.9934769409999999</v>
+      </c>
+      <c r="G51">
+        <v>7.1434999999999999E-4</v>
+      </c>
+      <c r="H51">
+        <v>0.99478155400000001</v>
+      </c>
+      <c r="I51" t="s">
+        <v>91</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>2008</v>
+      </c>
+      <c r="L51">
+        <v>1.06</v>
+      </c>
+      <c r="M51">
+        <v>331.8</v>
+      </c>
+      <c r="N51">
+        <v>119.0624</v>
+      </c>
+      <c r="O51">
+        <v>18.192734720000001</v>
+      </c>
+      <c r="P51">
+        <v>100.86966528000001</v>
+      </c>
+      <c r="Q51">
+        <v>1.4554187776</v>
+      </c>
+      <c r="R51">
+        <v>0.41981105755499998</v>
+      </c>
+      <c r="S51">
+        <v>2.4392717910299999</v>
+      </c>
+      <c r="T51">
+        <v>1.1307037283800001</v>
+      </c>
+      <c r="V51" t="s">
+        <v>35</v>
+      </c>
+      <c r="W51">
+        <v>0.18603500000000001</v>
+      </c>
+      <c r="X51">
+        <v>15.28</v>
+      </c>
+      <c r="Y51">
+        <v>0.35</v>
+      </c>
+      <c r="Z51">
+        <v>0.1</v>
+      </c>
+      <c r="AA51">
+        <v>4.9934769409999999</v>
+      </c>
+      <c r="AB51">
+        <v>7.1434999999999999E-4</v>
+      </c>
+      <c r="AC51">
+        <v>0.99478155400000001</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE51">
+        <v>6</v>
+      </c>
+      <c r="AF51">
+        <v>2008</v>
+      </c>
+      <c r="AG51">
+        <v>1.06</v>
+      </c>
+      <c r="AH51">
+        <v>331.8</v>
+      </c>
+      <c r="AI51">
+        <v>119.0624</v>
+      </c>
+      <c r="AJ51">
+        <v>18.192734720000001</v>
+      </c>
+      <c r="AK51">
+        <v>100.86966528000001</v>
+      </c>
+      <c r="AL51">
+        <v>1.4554187776</v>
+      </c>
+      <c r="AM51">
+        <v>0.41981105755499998</v>
+      </c>
+      <c r="AN51">
+        <v>2.4392717910299999</v>
+      </c>
+      <c r="AO51">
+        <v>3.8946905686300002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52">
+        <v>0.17038200000000001</v>
+      </c>
+      <c r="C52">
+        <v>21.59</v>
+      </c>
+      <c r="D52">
+        <v>0.35</v>
+      </c>
+      <c r="E52">
+        <v>0.1</v>
+      </c>
+      <c r="F52">
+        <v>4.9746992609999996</v>
+      </c>
+      <c r="G52">
+        <v>7.5565699999999997E-4</v>
+      </c>
+      <c r="H52">
+        <v>0.97975942000000005</v>
+      </c>
+      <c r="I52" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>2008</v>
+      </c>
+      <c r="L52">
+        <v>1.06</v>
+      </c>
+      <c r="M52">
+        <v>331.8</v>
+      </c>
+      <c r="N52">
+        <v>109.04447999999999</v>
+      </c>
+      <c r="O52">
+        <v>23.542703232000001</v>
+      </c>
+      <c r="P52">
+        <v>85.501776767999999</v>
+      </c>
+      <c r="Q52">
+        <v>1.8834162585600001</v>
+      </c>
+      <c r="R52">
+        <v>0.41597015725199998</v>
+      </c>
+      <c r="S52">
+        <v>2.09500616482</v>
+      </c>
+      <c r="T52">
+        <v>1.63175635966</v>
+      </c>
+      <c r="V52" t="s">
+        <v>36</v>
+      </c>
+      <c r="W52">
+        <v>0.17038200000000001</v>
+      </c>
+      <c r="X52">
+        <v>21.59</v>
+      </c>
+      <c r="Y52">
+        <v>0.35</v>
+      </c>
+      <c r="Z52">
+        <v>0.1</v>
+      </c>
+      <c r="AA52">
+        <v>4.9746992609999996</v>
+      </c>
+      <c r="AB52">
+        <v>7.5565699999999997E-4</v>
+      </c>
+      <c r="AC52">
+        <v>0.97975942000000005</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE52">
+        <v>6</v>
+      </c>
+      <c r="AF52">
+        <v>2008</v>
+      </c>
+      <c r="AG52">
+        <v>1.06</v>
+      </c>
+      <c r="AH52">
+        <v>331.8</v>
+      </c>
+      <c r="AI52">
+        <v>109.04447999999999</v>
+      </c>
+      <c r="AJ52">
+        <v>23.542703232000001</v>
+      </c>
+      <c r="AK52">
+        <v>85.501776767999999</v>
+      </c>
+      <c r="AL52">
+        <v>1.8834162585600001</v>
+      </c>
+      <c r="AM52">
+        <v>0.41597015725199998</v>
+      </c>
+      <c r="AN52">
+        <v>2.09500616482</v>
+      </c>
+      <c r="AO52">
+        <v>3.9784224233800001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53">
+        <v>0.17658499999999999</v>
+      </c>
+      <c r="C53">
+        <v>31.09</v>
+      </c>
+      <c r="D53">
+        <v>0.35</v>
+      </c>
+      <c r="E53">
+        <v>0.1</v>
+      </c>
+      <c r="F53">
+        <v>4.9956862700000002</v>
+      </c>
+      <c r="G53">
+        <v>7.0949200000000004E-4</v>
+      </c>
+      <c r="H53">
+        <v>0.99654900700000004</v>
+      </c>
+      <c r="I53" t="s">
+        <v>91</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+      <c r="K53">
+        <v>2008</v>
+      </c>
+      <c r="L53">
+        <v>1.06</v>
+      </c>
+      <c r="M53">
+        <v>331.8</v>
+      </c>
+      <c r="N53">
+        <v>113.01439999999999</v>
+      </c>
+      <c r="O53">
+        <v>35.13617696</v>
+      </c>
+      <c r="P53">
+        <v>77.878223039999995</v>
+      </c>
+      <c r="Q53">
+        <v>2.8108941567999999</v>
+      </c>
+      <c r="R53">
+        <v>0.42026439231599999</v>
+      </c>
+      <c r="S53">
+        <v>1.88034118982</v>
+      </c>
+      <c r="T53">
+        <v>2.7711276409800001</v>
+      </c>
+      <c r="V53" t="s">
+        <v>37</v>
+      </c>
+      <c r="W53">
+        <v>0.17658499999999999</v>
+      </c>
+      <c r="X53">
+        <v>31.09</v>
+      </c>
+      <c r="Y53">
+        <v>0.35</v>
+      </c>
+      <c r="Z53">
+        <v>0.1</v>
+      </c>
+      <c r="AA53">
+        <v>4.9956862700000002</v>
+      </c>
+      <c r="AB53">
+        <v>7.0949200000000004E-4</v>
+      </c>
+      <c r="AC53">
+        <v>0.99654900700000004</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE53">
+        <v>6</v>
+      </c>
+      <c r="AF53">
+        <v>2008</v>
+      </c>
+      <c r="AG53">
+        <v>1.06</v>
+      </c>
+      <c r="AH53">
+        <v>331.8</v>
+      </c>
+      <c r="AI53">
+        <v>113.01439999999999</v>
+      </c>
+      <c r="AJ53">
+        <v>35.13617696</v>
+      </c>
+      <c r="AK53">
+        <v>77.878223039999995</v>
+      </c>
+      <c r="AL53">
+        <v>2.8108941567999999</v>
+      </c>
+      <c r="AM53">
+        <v>0.42026439231599999</v>
+      </c>
+      <c r="AN53">
+        <v>1.88034118982</v>
+      </c>
+      <c r="AO53">
+        <v>4.6912353466200001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54">
+        <v>0.113667</v>
+      </c>
+      <c r="C54">
+        <v>75.290000000000006</v>
+      </c>
+      <c r="D54">
+        <v>0.35</v>
+      </c>
+      <c r="E54">
+        <v>0.1</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>7.0000399999999995E-4</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <v>2008</v>
+      </c>
+      <c r="L54">
+        <v>1.06</v>
+      </c>
+      <c r="M54">
+        <v>331.8</v>
+      </c>
+      <c r="N54">
+        <v>72.746880000000004</v>
+      </c>
+      <c r="O54">
+        <v>54.771125951999998</v>
+      </c>
+      <c r="P54">
+        <v>17.975754047999999</v>
+      </c>
+      <c r="Q54">
+        <v>4.3816900761599999</v>
+      </c>
+      <c r="R54">
+        <v>0.42115060899599999</v>
+      </c>
+      <c r="S54">
+        <v>0.43269046746599998</v>
+      </c>
+      <c r="T54">
+        <v>4.2556719588499998</v>
+      </c>
+      <c r="V54" t="s">
+        <v>38</v>
+      </c>
+      <c r="W54">
+        <v>0.113667</v>
+      </c>
+      <c r="X54">
+        <v>75.290000000000006</v>
+      </c>
+      <c r="Y54">
+        <v>0.35</v>
+      </c>
+      <c r="Z54">
+        <v>0.1</v>
+      </c>
+      <c r="AA54">
+        <v>5</v>
+      </c>
+      <c r="AB54">
+        <v>7.0000399999999995E-4</v>
+      </c>
+      <c r="AC54">
+        <v>1</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE54">
+        <v>6</v>
+      </c>
+      <c r="AF54">
+        <v>2008</v>
+      </c>
+      <c r="AG54">
+        <v>1.06</v>
+      </c>
+      <c r="AH54">
+        <v>331.8</v>
+      </c>
+      <c r="AI54">
+        <v>72.746880000000004</v>
+      </c>
+      <c r="AJ54">
+        <v>54.771125951999998</v>
+      </c>
+      <c r="AK54">
+        <v>17.975754047999999</v>
+      </c>
+      <c r="AL54">
+        <v>4.3816900761599999</v>
+      </c>
+      <c r="AM54">
+        <v>0.42115060899599999</v>
+      </c>
+      <c r="AN54">
+        <v>0.43269046746599998</v>
+      </c>
+      <c r="AO54">
+        <v>4.8143805436299996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55">
+        <v>0.121963</v>
+      </c>
+      <c r="C55">
+        <v>80</v>
+      </c>
+      <c r="D55">
+        <v>0.35</v>
+      </c>
+      <c r="E55">
+        <v>0.1</v>
+      </c>
+      <c r="F55">
+        <v>5.0000000130000002</v>
+      </c>
+      <c r="G55">
+        <v>6.9999600000000004E-4</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>91</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>2008</v>
+      </c>
+      <c r="L55">
+        <v>1.06</v>
+      </c>
+      <c r="M55">
+        <v>331.8</v>
+      </c>
+      <c r="N55">
+        <v>78.056319999999999</v>
+      </c>
+      <c r="O55">
+        <v>62.445056000000001</v>
+      </c>
+      <c r="P55">
+        <v>15.611264</v>
+      </c>
+      <c r="Q55">
+        <v>4.9956044799999999</v>
+      </c>
+      <c r="R55">
+        <v>0.42115102980699998</v>
+      </c>
+      <c r="S55">
+        <v>0.37577479415100001</v>
+      </c>
+      <c r="T55">
+        <v>4.7959869901100003</v>
+      </c>
+      <c r="V55" t="s">
+        <v>39</v>
+      </c>
+      <c r="W55">
+        <v>0.121963</v>
+      </c>
+      <c r="X55">
+        <v>80</v>
+      </c>
+      <c r="Y55">
+        <v>0.35</v>
+      </c>
+      <c r="Z55">
+        <v>0.1</v>
+      </c>
+      <c r="AA55">
+        <v>5.0000000130000002</v>
+      </c>
+      <c r="AB55">
+        <v>6.9999600000000004E-4</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE55">
+        <v>6</v>
+      </c>
+      <c r="AF55">
+        <v>2008</v>
+      </c>
+      <c r="AG55">
+        <v>1.06</v>
+      </c>
+      <c r="AH55">
+        <v>331.8</v>
+      </c>
+      <c r="AI55">
+        <v>78.056319999999999</v>
+      </c>
+      <c r="AJ55">
+        <v>62.445056000000001</v>
+      </c>
+      <c r="AK55">
+        <v>15.611264</v>
+      </c>
+      <c r="AL55">
+        <v>4.9956044799999999</v>
+      </c>
+      <c r="AM55">
+        <v>0.42115102980699998</v>
+      </c>
+      <c r="AN55">
+        <v>0.37577479415100001</v>
+      </c>
+      <c r="AO55">
+        <v>5.3713792741499997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56">
+        <v>0.15629799999999999</v>
+      </c>
+      <c r="C56">
+        <v>62.26</v>
+      </c>
+      <c r="D56">
+        <v>0.35</v>
+      </c>
+      <c r="E56">
+        <v>0.1</v>
+      </c>
+      <c r="F56">
+        <v>4.9722699119999998</v>
+      </c>
+      <c r="G56">
+        <v>7.6100799999999998E-4</v>
+      </c>
+      <c r="H56">
+        <v>0.97781591000000001</v>
+      </c>
+      <c r="I56" t="s">
+        <v>91</v>
+      </c>
+      <c r="J56">
+        <v>6</v>
+      </c>
+      <c r="K56">
+        <v>2008</v>
+      </c>
+      <c r="L56">
+        <v>1.06</v>
+      </c>
+      <c r="M56">
+        <v>331.8</v>
+      </c>
+      <c r="N56">
+        <v>100.03072</v>
+      </c>
+      <c r="O56">
+        <v>62.279126271999999</v>
+      </c>
+      <c r="P56">
+        <v>37.751593728000003</v>
+      </c>
+      <c r="Q56">
+        <v>4.9823301017599997</v>
+      </c>
+      <c r="R56">
+        <v>0.415474580772</v>
+      </c>
+      <c r="S56">
+        <v>0.92656699743799997</v>
+      </c>
+      <c r="T56">
+        <v>5.07713242148</v>
+      </c>
+      <c r="V56" t="s">
+        <v>40</v>
+      </c>
+      <c r="W56">
+        <v>0.15629799999999999</v>
+      </c>
+      <c r="X56">
+        <v>62.26</v>
+      </c>
+      <c r="Y56">
+        <v>0.35</v>
+      </c>
+      <c r="Z56">
+        <v>0.1</v>
+      </c>
+      <c r="AA56">
+        <v>4.9722699119999998</v>
+      </c>
+      <c r="AB56">
+        <v>7.6100799999999998E-4</v>
+      </c>
+      <c r="AC56">
+        <v>0.97781591000000001</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE56">
+        <v>6</v>
+      </c>
+      <c r="AF56">
+        <v>2008</v>
+      </c>
+      <c r="AG56">
+        <v>1.06</v>
+      </c>
+      <c r="AH56">
+        <v>331.8</v>
+      </c>
+      <c r="AI56">
+        <v>100.03072</v>
+      </c>
+      <c r="AJ56">
+        <v>62.279126271999999</v>
+      </c>
+      <c r="AK56">
+        <v>37.751593728000003</v>
+      </c>
+      <c r="AL56">
+        <v>4.9823301017599997</v>
+      </c>
+      <c r="AM56">
+        <v>0.415474580772</v>
+      </c>
+      <c r="AN56">
+        <v>0.92656699743799997</v>
+      </c>
+      <c r="AO56">
+        <v>5.9088970991999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57">
+        <v>0.15693499999999999</v>
+      </c>
+      <c r="C57">
+        <v>37.64</v>
+      </c>
+      <c r="D57">
+        <v>0.35</v>
+      </c>
+      <c r="E57">
+        <v>0.1</v>
+      </c>
+      <c r="F57">
+        <v>4.7031505559999998</v>
+      </c>
+      <c r="G57">
+        <v>1.3530689999999999E-3</v>
+      </c>
+      <c r="H57">
+        <v>0.76252046299999998</v>
+      </c>
+      <c r="I57" t="s">
+        <v>91</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <v>2008</v>
+      </c>
+      <c r="L57">
+        <v>1.06</v>
+      </c>
+      <c r="M57">
+        <v>331.8</v>
+      </c>
+      <c r="N57">
+        <v>100.4384</v>
+      </c>
+      <c r="O57">
+        <v>37.805013760000001</v>
+      </c>
+      <c r="P57">
+        <v>62.63338624</v>
+      </c>
+      <c r="Q57">
+        <v>3.0244011008</v>
+      </c>
+      <c r="R57">
+        <v>0.36289142724000001</v>
+      </c>
+      <c r="S57">
+        <v>1.8117154420699999</v>
+      </c>
+      <c r="T57">
+        <v>3.4582183404600002</v>
+      </c>
+      <c r="V57" t="s">
+        <v>41</v>
+      </c>
+      <c r="W57">
+        <v>0.15693499999999999</v>
+      </c>
+      <c r="X57">
+        <v>37.64</v>
+      </c>
+      <c r="Y57">
+        <v>0.35</v>
+      </c>
+      <c r="Z57">
+        <v>0.1</v>
+      </c>
+      <c r="AA57">
+        <v>4.7031505559999998</v>
+      </c>
+      <c r="AB57">
+        <v>1.3530689999999999E-3</v>
+      </c>
+      <c r="AC57">
+        <v>0.76252046299999998</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE57">
+        <v>6</v>
+      </c>
+      <c r="AF57">
+        <v>2008</v>
+      </c>
+      <c r="AG57">
+        <v>1.06</v>
+      </c>
+      <c r="AH57">
+        <v>331.8</v>
+      </c>
+      <c r="AI57">
+        <v>100.4384</v>
+      </c>
+      <c r="AJ57">
+        <v>37.805013760000001</v>
+      </c>
+      <c r="AK57">
+        <v>62.63338624</v>
+      </c>
+      <c r="AL57">
+        <v>3.0244011008</v>
+      </c>
+      <c r="AM57">
+        <v>0.36289142724000001</v>
+      </c>
+      <c r="AN57">
+        <v>1.8117154420699999</v>
+      </c>
+      <c r="AO57">
+        <v>4.8361165428700001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58">
+        <v>8.0530000000000004E-2</v>
+      </c>
+      <c r="C58">
+        <v>50.85</v>
+      </c>
+      <c r="D58">
+        <v>0.35</v>
+      </c>
+      <c r="E58">
+        <v>0.1</v>
+      </c>
+      <c r="F58">
+        <v>4.5134515620000002</v>
+      </c>
+      <c r="G58">
+        <v>1.770396E-3</v>
+      </c>
+      <c r="H58">
+        <v>0.61076126900000005</v>
+      </c>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+      <c r="J58">
+        <v>6</v>
+      </c>
+      <c r="K58">
+        <v>2008</v>
+      </c>
+      <c r="L58">
+        <v>1.06</v>
+      </c>
+      <c r="M58">
+        <v>331.8</v>
+      </c>
+      <c r="N58">
+        <v>51.539200000000001</v>
+      </c>
+      <c r="O58">
+        <v>26.207683200000002</v>
+      </c>
+      <c r="P58">
+        <v>25.331516799999999</v>
+      </c>
+      <c r="Q58">
+        <v>2.0966146559999999</v>
+      </c>
+      <c r="R58">
+        <v>0.32831638013499997</v>
+      </c>
+      <c r="S58">
+        <v>0.80571875240699997</v>
+      </c>
+      <c r="T58">
+        <v>2.3553603064900002</v>
+      </c>
+      <c r="V58" t="s">
+        <v>42</v>
+      </c>
+      <c r="W58">
+        <v>8.0530000000000004E-2</v>
+      </c>
+      <c r="X58">
+        <v>50.85</v>
+      </c>
+      <c r="Y58">
+        <v>0.35</v>
+      </c>
+      <c r="Z58">
+        <v>0.1</v>
+      </c>
+      <c r="AA58">
+        <v>4.5134515620000002</v>
+      </c>
+      <c r="AB58">
+        <v>1.770396E-3</v>
+      </c>
+      <c r="AC58">
+        <v>0.61076126900000005</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE58">
+        <v>6</v>
+      </c>
+      <c r="AF58">
+        <v>2008</v>
+      </c>
+      <c r="AG58">
+        <v>1.06</v>
+      </c>
+      <c r="AH58">
+        <v>331.8</v>
+      </c>
+      <c r="AI58">
+        <v>51.539200000000001</v>
+      </c>
+      <c r="AJ58">
+        <v>26.207683200000002</v>
+      </c>
+      <c r="AK58">
+        <v>25.331516799999999</v>
+      </c>
+      <c r="AL58">
+        <v>2.0966146559999999</v>
+      </c>
+      <c r="AM58">
+        <v>0.32831638013499997</v>
+      </c>
+      <c r="AN58">
+        <v>0.80571875240699997</v>
+      </c>
+      <c r="AO58">
+        <v>2.9023334084100001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59">
+        <v>0.179732</v>
+      </c>
+      <c r="C59">
+        <v>61.34</v>
+      </c>
+      <c r="D59">
+        <v>0.35</v>
+      </c>
+      <c r="E59">
+        <v>0.1</v>
+      </c>
+      <c r="F59">
+        <v>4.450768718</v>
+      </c>
+      <c r="G59">
+        <v>1.415693E-3</v>
+      </c>
+      <c r="H59">
+        <v>0.72481972500000003</v>
+      </c>
+      <c r="I59" t="s">
+        <v>91</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+      <c r="K59">
+        <v>2008</v>
+      </c>
+      <c r="L59">
+        <v>1.06</v>
+      </c>
+      <c r="M59">
+        <v>331.8</v>
+      </c>
+      <c r="N59">
+        <v>115.02848</v>
+      </c>
+      <c r="O59">
+        <v>70.558469631999998</v>
+      </c>
+      <c r="P59">
+        <v>44.470010367999997</v>
+      </c>
+      <c r="Q59">
+        <v>5.6446775705599999</v>
+      </c>
+      <c r="R59">
+        <v>0.34083303597199999</v>
+      </c>
+      <c r="S59">
+        <v>1.3680715598199999</v>
+      </c>
+      <c r="T59">
+        <v>6.01265835294</v>
+      </c>
+      <c r="V59" t="s">
+        <v>43</v>
+      </c>
+      <c r="W59">
+        <v>0.179732</v>
+      </c>
+      <c r="X59">
+        <v>61.34</v>
+      </c>
+      <c r="Y59">
+        <v>0.35</v>
+      </c>
+      <c r="Z59">
+        <v>0.1</v>
+      </c>
+      <c r="AA59">
+        <v>4.450768718</v>
+      </c>
+      <c r="AB59">
+        <v>1.415693E-3</v>
+      </c>
+      <c r="AC59">
+        <v>0.72481972500000003</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE59">
+        <v>6</v>
+      </c>
+      <c r="AF59">
+        <v>2008</v>
+      </c>
+      <c r="AG59">
+        <v>1.06</v>
+      </c>
+      <c r="AH59">
+        <v>331.8</v>
+      </c>
+      <c r="AI59">
+        <v>115.02848</v>
+      </c>
+      <c r="AJ59">
+        <v>70.558469631999998</v>
+      </c>
+      <c r="AK59">
+        <v>44.470010367999997</v>
+      </c>
+      <c r="AL59">
+        <v>5.6446775705599999</v>
+      </c>
+      <c r="AM59">
+        <v>0.34083303597199999</v>
+      </c>
+      <c r="AN59">
+        <v>1.3680715598199999</v>
+      </c>
+      <c r="AO59">
+        <v>7.0127491303799996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60">
+        <v>7.5761999999999996E-2</v>
+      </c>
+      <c r="C60">
+        <v>79.739999999999995</v>
+      </c>
+      <c r="D60">
+        <v>0.35</v>
+      </c>
+      <c r="E60">
+        <v>0.1</v>
+      </c>
+      <c r="F60">
+        <v>3.000000021</v>
+      </c>
+      <c r="G60">
+        <v>1.800006E-3</v>
+      </c>
+      <c r="H60">
+        <v>0.5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
+      </c>
+      <c r="K60">
+        <v>2008</v>
+      </c>
+      <c r="L60">
+        <v>1.06</v>
+      </c>
+      <c r="M60">
+        <v>331.8</v>
+      </c>
+      <c r="N60">
+        <v>48.487679999999997</v>
+      </c>
+      <c r="O60">
+        <v>38.664076031999997</v>
+      </c>
+      <c r="P60">
+        <v>9.8236039680000005</v>
+      </c>
+      <c r="Q60">
+        <v>3.09312608256</v>
+      </c>
+      <c r="R60">
+        <v>0.219567574081</v>
+      </c>
+      <c r="S60">
+        <v>0.40148449377399997</v>
+      </c>
+      <c r="T60">
+        <v>3.1174939027200002</v>
+      </c>
+      <c r="V60" t="s">
+        <v>44</v>
+      </c>
+      <c r="W60">
+        <v>7.5761999999999996E-2</v>
+      </c>
+      <c r="X60">
+        <v>79.739999999999995</v>
+      </c>
+      <c r="Y60">
+        <v>0.35</v>
+      </c>
+      <c r="Z60">
+        <v>0.1</v>
+      </c>
+      <c r="AA60">
+        <v>3.000000021</v>
+      </c>
+      <c r="AB60">
+        <v>1.800006E-3</v>
+      </c>
+      <c r="AC60">
+        <v>0.5</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE60">
+        <v>6</v>
+      </c>
+      <c r="AF60">
+        <v>2008</v>
+      </c>
+      <c r="AG60">
+        <v>1.06</v>
+      </c>
+      <c r="AH60">
+        <v>331.8</v>
+      </c>
+      <c r="AI60">
+        <v>48.487679999999997</v>
+      </c>
+      <c r="AJ60">
+        <v>38.664076031999997</v>
+      </c>
+      <c r="AK60">
+        <v>9.8236039680000005</v>
+      </c>
+      <c r="AL60">
+        <v>3.09312608256</v>
+      </c>
+      <c r="AM60">
+        <v>0.219567574081</v>
+      </c>
+      <c r="AN60">
+        <v>0.40148449377399997</v>
+      </c>
+      <c r="AO60">
+        <v>3.4946105763299999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61">
+        <v>0.31272800000000001</v>
+      </c>
+      <c r="C61">
+        <v>63.054589960000001</v>
+      </c>
+      <c r="D61">
+        <v>0.35</v>
+      </c>
+      <c r="E61">
+        <v>0.1</v>
+      </c>
+      <c r="F61">
+        <v>3.351483381</v>
+      </c>
+      <c r="G61">
+        <v>1.7976750000000001E-3</v>
+      </c>
+      <c r="H61">
+        <v>0.52420764500000006</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <v>2008</v>
+      </c>
+      <c r="L61">
+        <v>1.06</v>
+      </c>
+      <c r="M61">
+        <v>331.8</v>
+      </c>
+      <c r="N61">
+        <v>200.14591999999999</v>
+      </c>
+      <c r="O61">
+        <v>126.20118917800001</v>
+      </c>
+      <c r="P61">
+        <v>73.944730822300002</v>
+      </c>
+      <c r="Q61">
+        <v>10.0960951342</v>
+      </c>
+      <c r="R61">
+        <v>0.24457796358700001</v>
+      </c>
+      <c r="S61">
+        <v>2.8679589334500002</v>
+      </c>
+      <c r="T61">
+        <v>11.159835316300001</v>
+      </c>
+      <c r="V61" t="s">
+        <v>45</v>
+      </c>
+      <c r="W61">
+        <v>0.31272800000000001</v>
+      </c>
+      <c r="X61">
+        <v>63.054589960000001</v>
+      </c>
+      <c r="Y61">
+        <v>0.35</v>
+      </c>
+      <c r="Z61">
+        <v>0.1</v>
+      </c>
+      <c r="AA61">
+        <v>3.351483381</v>
+      </c>
+      <c r="AB61">
+        <v>1.7976750000000001E-3</v>
+      </c>
+      <c r="AC61">
+        <v>0.52420764500000006</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE61">
+        <v>6</v>
+      </c>
+      <c r="AF61">
+        <v>2008</v>
+      </c>
+      <c r="AG61">
+        <v>1.06</v>
+      </c>
+      <c r="AH61">
+        <v>331.8</v>
+      </c>
+      <c r="AI61">
+        <v>200.14591999999999</v>
+      </c>
+      <c r="AJ61">
+        <v>126.20118917800001</v>
+      </c>
+      <c r="AK61">
+        <v>73.944730822300002</v>
+      </c>
+      <c r="AL61">
+        <v>10.0960951342</v>
+      </c>
+      <c r="AM61">
+        <v>0.24457796358700001</v>
+      </c>
+      <c r="AN61">
+        <v>2.8679589334500002</v>
+      </c>
+      <c r="AO61">
+        <v>12.964054067699999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62">
+        <v>0.41601900000000003</v>
+      </c>
+      <c r="C62">
+        <v>72.391568169999999</v>
+      </c>
+      <c r="D62">
+        <v>0.35</v>
+      </c>
+      <c r="E62">
+        <v>0.1</v>
+      </c>
+      <c r="F62">
+        <v>3.0387296589999999</v>
+      </c>
+      <c r="G62">
+        <v>1.800002E-3</v>
+      </c>
+      <c r="H62">
+        <v>0.50258197500000001</v>
+      </c>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <v>2008</v>
+      </c>
+      <c r="L62">
+        <v>1.06</v>
+      </c>
+      <c r="M62">
+        <v>331.8</v>
+      </c>
+      <c r="N62">
+        <v>266.25216</v>
+      </c>
+      <c r="O62">
+        <v>192.74411391000001</v>
+      </c>
+      <c r="P62">
+        <v>73.508046089499999</v>
+      </c>
+      <c r="Q62">
+        <v>15.419529112799999</v>
+      </c>
+      <c r="R62">
+        <v>0.22231407127</v>
+      </c>
+      <c r="S62">
+        <v>2.98740331053</v>
+      </c>
+      <c r="T62">
+        <v>16.1687829044</v>
+      </c>
+      <c r="V62" t="s">
+        <v>46</v>
+      </c>
+      <c r="W62">
+        <v>0.41601900000000003</v>
+      </c>
+      <c r="X62">
+        <v>72.391568169999999</v>
+      </c>
+      <c r="Y62">
+        <v>0.35</v>
+      </c>
+      <c r="Z62">
+        <v>0.1</v>
+      </c>
+      <c r="AA62">
+        <v>3.0387296589999999</v>
+      </c>
+      <c r="AB62">
+        <v>1.800002E-3</v>
+      </c>
+      <c r="AC62">
+        <v>0.50258197500000001</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE62">
+        <v>6</v>
+      </c>
+      <c r="AF62">
+        <v>2008</v>
+      </c>
+      <c r="AG62">
+        <v>1.06</v>
+      </c>
+      <c r="AH62">
+        <v>331.8</v>
+      </c>
+      <c r="AI62">
+        <v>266.25216</v>
+      </c>
+      <c r="AJ62">
+        <v>192.74411391000001</v>
+      </c>
+      <c r="AK62">
+        <v>73.508046089499999</v>
+      </c>
+      <c r="AL62">
+        <v>15.419529112799999</v>
+      </c>
+      <c r="AM62">
+        <v>0.22231407127</v>
+      </c>
+      <c r="AN62">
+        <v>2.98740331053</v>
+      </c>
+      <c r="AO62">
+        <v>18.406932423400001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:X61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:U32"/>
+      <selection activeCell="R5" sqref="R5:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7272,8 +13007,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:U61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10949,11 +16685,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:AE63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="V17" sqref="V17"/>
     </sheetView>
@@ -15155,8 +20892,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A3:AC32"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -16739,8 +22477,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
